--- a/Financial_Template.xlsx
+++ b/Financial_Template.xlsx
@@ -5,11 +5,11 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Business plan\Joorney\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Business plan\Git BP tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25200" windowHeight="11145" activeTab="6"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25200" windowHeight="11145" tabRatio="834"/>
   </bookViews>
   <sheets>
     <sheet name="Personnel" sheetId="8" r:id="rId1"/>
@@ -21,11 +21,6 @@
     <sheet name="Feasibility" sheetId="11" r:id="rId7"/>
     <sheet name="Cost Benefit" sheetId="12" r:id="rId8"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId9"/>
-    <externalReference r:id="rId10"/>
-    <externalReference r:id="rId11"/>
-  </externalReferences>
   <definedNames>
     <definedName name="cone">'Cost Benefit'!$10:$10</definedName>
     <definedName name="ctwo">'Cost Benefit'!$7:$7</definedName>
@@ -45,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="54">
   <si>
     <t>Number of Employees per Position</t>
   </si>
@@ -83,127 +78,19 @@
     <t>Total Payroll Expenses</t>
   </si>
   <si>
-    <t>Insurance</t>
-  </si>
-  <si>
-    <t>Total Operating Expenses</t>
-  </si>
-  <si>
-    <t>Utilities</t>
-  </si>
-  <si>
-    <t>Operating Expenses</t>
-  </si>
-  <si>
-    <t>Maintenance Expenses</t>
-  </si>
-  <si>
     <t>Payroll Taxes</t>
-  </si>
-  <si>
-    <t>EBITDA</t>
   </si>
   <si>
     <t>Marketing</t>
   </si>
   <si>
-    <t>Depreciation</t>
-  </si>
-  <si>
-    <t>Other</t>
-  </si>
-  <si>
-    <t>Rent</t>
-  </si>
-  <si>
     <t>Sales</t>
-  </si>
-  <si>
-    <t>Direct Cost of Sales</t>
-  </si>
-  <si>
-    <t>Total Cost of Sales</t>
   </si>
   <si>
     <t>Gross Margin</t>
   </si>
   <si>
-    <t>Gross Margin %</t>
-  </si>
-  <si>
-    <t>Payroll</t>
-  </si>
-  <si>
-    <t>Profit Before Interest and Taxes</t>
-  </si>
-  <si>
     <t>Net Profit</t>
-  </si>
-  <si>
-    <t>Net Profit/Sales</t>
-  </si>
-  <si>
-    <t>Drugi Artikal</t>
-  </si>
-  <si>
-    <t>Treci Artikal</t>
-  </si>
-  <si>
-    <t>Prvi Artikal</t>
-  </si>
-  <si>
-    <t>Sales Forecast</t>
-  </si>
-  <si>
-    <t>Total Sales</t>
-  </si>
-  <si>
-    <t>Subtotal Direct Cost of Sales</t>
-  </si>
-  <si>
-    <t>Net Worth</t>
-  </si>
-  <si>
-    <t>Total Assets</t>
-  </si>
-  <si>
-    <t>Total Long-term Assets</t>
-  </si>
-  <si>
-    <t>Accumulated Depreciation</t>
-  </si>
-  <si>
-    <t>Long-term Assets</t>
-  </si>
-  <si>
-    <t>Total Capital</t>
-  </si>
-  <si>
-    <t>Liabilities and Capital</t>
-  </si>
-  <si>
-    <t>Total Current Assets</t>
-  </si>
-  <si>
-    <t>Assets</t>
-  </si>
-  <si>
-    <t>Cash</t>
-  </si>
-  <si>
-    <t>Current Assets</t>
-  </si>
-  <si>
-    <t>Paid-in Capital</t>
-  </si>
-  <si>
-    <t>Retained Earnings</t>
-  </si>
-  <si>
-    <t>Earnings</t>
-  </si>
-  <si>
-    <t>Profit and Loss</t>
   </si>
   <si>
     <t>Average Per-Unit Revenue</t>
@@ -228,9 +115,6 @@
   </si>
   <si>
     <t>Assumptions:</t>
-  </si>
-  <si>
-    <t>Balance Sheet</t>
   </si>
   <si>
     <t>Units</t>
@@ -317,21 +201,24 @@
     <t>Total Taxes</t>
   </si>
   <si>
-    <t xml:space="preserve"> Taxes Incurred</t>
+    <t>F.Y.S. month</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="7">
+  <numFmts count="10">
     <numFmt numFmtId="5" formatCode="&quot;$&quot;#,##0_);\(&quot;$&quot;#,##0\)"/>
     <numFmt numFmtId="6" formatCode="&quot;$&quot;#,##0_);[Red]\(&quot;$&quot;#,##0\)"/>
+    <numFmt numFmtId="7" formatCode="&quot;$&quot;#,##0.00_);\(&quot;$&quot;#,##0.00\)"/>
     <numFmt numFmtId="8" formatCode="&quot;$&quot;#,##0.00_);[Red]\(&quot;$&quot;#,##0.00\)"/>
     <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0"/>
     <numFmt numFmtId="165" formatCode="[$$-540A]#,##0"/>
-    <numFmt numFmtId="166" formatCode="0.00%_)"/>
-    <numFmt numFmtId="169" formatCode="&quot;$&quot;#,##0.00"/>
+    <numFmt numFmtId="167" formatCode="&quot;$&quot;#,##0.00"/>
+    <numFmt numFmtId="169" formatCode="0%_)"/>
+    <numFmt numFmtId="170" formatCode="&quot;$&quot;#,##0_)"/>
+    <numFmt numFmtId="171" formatCode="0_)"/>
   </numFmts>
   <fonts count="13" x14ac:knownFonts="1">
     <font>
@@ -572,17 +459,6 @@
     </border>
     <border>
       <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
       <right style="thin">
         <color indexed="64"/>
       </right>
@@ -614,18 +490,24 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="8">
+  <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="148">
+  <cellXfs count="104">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -661,9 +543,6 @@
     <xf numFmtId="49" fontId="2" fillId="2" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="4" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="6" fillId="4" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
@@ -674,13 +553,6 @@
     <xf numFmtId="165" fontId="3" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="4" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="5" fillId="4" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1" applyProtection="1"/>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -709,154 +581,6 @@
     <xf numFmtId="165" fontId="3" fillId="5" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="4" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="4" fillId="7" borderId="4" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="6" fontId="4" fillId="0" borderId="4" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="6" fontId="4" fillId="0" borderId="4" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="6" fontId="4" fillId="0" borderId="4" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="4" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="2" fillId="6" borderId="4" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="4" fillId="7" borderId="3" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="4" fillId="7" borderId="5" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="4" fillId="7" borderId="6" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="6" fontId="4" fillId="0" borderId="4" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="4" fillId="0" borderId="4" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="5" fontId="4" fillId="7" borderId="4" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="6" fontId="10" fillId="7" borderId="4" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="4" fillId="0" borderId="4" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="4" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="2" fillId="6" borderId="4" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="5" fontId="4" fillId="7" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="4" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="4" fillId="7" borderId="4" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="4" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="2" fillId="6" borderId="4" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="10" fillId="7" borderId="3" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="10" fillId="7" borderId="5" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="10" fillId="7" borderId="6" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="4" fillId="0" borderId="3" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="4" fillId="0" borderId="5" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="4" fillId="0" borderId="6" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="5" fontId="4" fillId="0" borderId="4" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="5" fontId="4" fillId="0" borderId="4" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="5" fontId="4" fillId="0" borderId="4" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="5" fontId="4" fillId="7" borderId="4" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="5" fontId="4" fillId="0" borderId="4" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="5" fontId="4" fillId="0" borderId="4" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="5" fontId="4" fillId="0" borderId="4" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="5" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="6" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="6" borderId="4" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="8" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -866,31 +590,28 @@
     <xf numFmtId="0" fontId="12" fillId="9" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="4" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="8" fillId="0" borderId="4" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="4" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="8" fillId="0" borderId="4" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="3" fontId="3" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="8" fontId="8" fillId="8" borderId="1" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="8" fontId="8" fillId="0" borderId="1" xfId="6" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="8" fontId="8" fillId="0" borderId="2" xfId="6" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="4" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="7" borderId="4" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="169" fontId="8" fillId="0" borderId="4" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="8" fontId="8" fillId="8" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="8" fontId="8" fillId="0" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="8" fontId="8" fillId="0" borderId="2" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="4" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="8" fillId="0" borderId="4" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="3" fontId="3" fillId="8" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -899,25 +620,13 @@
     <xf numFmtId="3" fontId="3" fillId="3" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="8" fontId="8" fillId="8" borderId="3" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="8" fontId="8" fillId="0" borderId="3" xfId="6" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="8" fontId="8" fillId="0" borderId="4" xfId="6" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="9" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="9" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="5" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="5" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="8" fontId="8" fillId="8" borderId="3" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="8" fontId="8" fillId="0" borderId="3" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="8" fontId="8" fillId="0" borderId="4" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -952,12 +661,12 @@
     <xf numFmtId="0" fontId="4" fillId="11" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="11" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="11" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -997,12 +706,12 @@
     <xf numFmtId="0" fontId="10" fillId="13" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="13" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="6" fontId="8" fillId="0" borderId="4" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1012,18 +721,12 @@
     <xf numFmtId="0" fontId="10" fillId="10" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="10" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="4" xfId="7" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="4" xfId="7" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="6" fontId="4" fillId="10" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1058,21 +761,64 @@
     <xf numFmtId="5" fontId="8" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="11" fillId="6" borderId="4" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="7" borderId="4" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="9" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="9" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="5" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="5" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="10" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="7" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="4" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="170" fontId="5" fillId="4" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="171" fontId="6" fillId="4" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="4" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="169" fontId="5" fillId="4" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="8">
+  <cellStyles count="5">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="1"/>
-    <cellStyle name="Normal_Balance Sheet" xfId="4"/>
-    <cellStyle name="Normal_BEA" xfId="6"/>
-    <cellStyle name="Normal_Break-even" xfId="5"/>
+    <cellStyle name="Normal_BEA" xfId="4"/>
+    <cellStyle name="Normal_Break-even" xfId="3"/>
     <cellStyle name="Normal_Profit and Loss" xfId="2"/>
-    <cellStyle name="Normal_Sales Forecast" xfId="3"/>
-    <cellStyle name="Normal_Sheet3" xfId="7"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FFFF3399"/>
       <color rgb="FFD5D000"/>
     </mruColors>
   </colors>
@@ -1222,19 +968,19 @@
                 <c:formatCode>"$"#,##0_);\("$"#,##0\)</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>16500</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>17325</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>18191.25</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>19100.810000000001</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>20055.849999999999</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1299,19 +1045,19 @@
                 <c:formatCode>"$"#,##0_);\("$"#,##0\)</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>2100</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>10935</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>19649.25</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>28236.71</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>36691.050000000003</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1376,19 +1122,19 @@
                 <c:formatCode>"$"#,##0_);\("$"#,##0\)</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>18600</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>28260</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>37840.5</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>47337.520000000004</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>56746.9</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1732,19 +1478,19 @@
                 <c:formatCode>"$"#,##0_);\("$"#,##0\)</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>4900</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>25515</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>45848.25</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>65885.66</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>85612.45</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1809,19 +1555,19 @@
                 <c:formatCode>"$"#,##0_);\("$"#,##0\)</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>195000</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>232500</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>270000</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>307500</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>345000</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1886,19 +1632,19 @@
                 <c:formatCode>"$"#,##0_);\("$"#,##0\)</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>1300000</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1550000</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1800000</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2050000</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2300000</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4512,13 +4258,13 @@
       <xdr:col>9</xdr:col>
       <xdr:colOff>34925</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>25400</xdr:rowOff>
+      <xdr:rowOff>34925</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
       <xdr:colOff>558125</xdr:colOff>
       <xdr:row>14</xdr:row>
-      <xdr:rowOff>58400</xdr:rowOff>
+      <xdr:rowOff>67925</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -4542,15 +4288,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>28575</xdr:colOff>
+      <xdr:colOff>47625</xdr:colOff>
       <xdr:row>14</xdr:row>
-      <xdr:rowOff>120650</xdr:rowOff>
+      <xdr:rowOff>130175</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>551775</xdr:colOff>
+      <xdr:colOff>570825</xdr:colOff>
       <xdr:row>28</xdr:row>
-      <xdr:rowOff>153650</xdr:rowOff>
+      <xdr:rowOff>163175</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -4572,387 +4318,6 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
-</file>
-
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="Sheet1"/>
-    </sheetNames>
-    <definedNames>
-      <definedName name="AddPerson"/>
-      <definedName name="DeletePerson"/>
-    </definedNames>
-    <sheetDataSet>
-      <sheetData sheetId="0"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
-<file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="Start-up"/>
-      <sheetName val="Past Performance"/>
-      <sheetName val="Personnel"/>
-      <sheetName val="Sales forecast-vb"/>
-      <sheetName val="Sales forecast"/>
-      <sheetName val="Profit and loss"/>
-      <sheetName val="Break-even"/>
-      <sheetName val="Cash-flow"/>
-      <sheetName val="Balance sheet"/>
-      <sheetName val="Charts"/>
-      <sheetName val="Feasibility"/>
-      <sheetName val="Cost Benefit"/>
-      <sheetName val="Ravenue Growth Snippet"/>
-    </sheetNames>
-    <definedNames>
-      <definedName name="UpdateCostBenefit_Click"/>
-      <definedName name="UpdateFeasibility_Click"/>
-    </definedNames>
-    <sheetDataSet>
-      <sheetData sheetId="0"/>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2"/>
-      <sheetData sheetId="3"/>
-      <sheetData sheetId="4"/>
-      <sheetData sheetId="5">
-        <row r="1">
-          <cell r="B1" t="str">
-            <v>Year 1</v>
-          </cell>
-          <cell r="C1" t="str">
-            <v>Year 2</v>
-          </cell>
-          <cell r="D1" t="str">
-            <v>Year 3</v>
-          </cell>
-          <cell r="E1" t="str">
-            <v>Year 4</v>
-          </cell>
-          <cell r="F1" t="str">
-            <v>Year 5</v>
-          </cell>
-        </row>
-        <row r="2">
-          <cell r="A2" t="str">
-            <v>Sales</v>
-          </cell>
-          <cell r="B2">
-            <v>0</v>
-          </cell>
-          <cell r="C2">
-            <v>0</v>
-          </cell>
-          <cell r="D2">
-            <v>0</v>
-          </cell>
-          <cell r="E2">
-            <v>0</v>
-          </cell>
-          <cell r="F2">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="3">
-          <cell r="B3">
-            <v>0</v>
-          </cell>
-          <cell r="C3">
-            <v>0</v>
-          </cell>
-          <cell r="D3">
-            <v>0</v>
-          </cell>
-          <cell r="E3">
-            <v>0</v>
-          </cell>
-          <cell r="F3">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="5">
-          <cell r="A5" t="str">
-            <v>Gross Margin</v>
-          </cell>
-          <cell r="B5">
-            <v>0</v>
-          </cell>
-          <cell r="C5">
-            <v>0</v>
-          </cell>
-          <cell r="D5">
-            <v>0</v>
-          </cell>
-          <cell r="E5">
-            <v>0</v>
-          </cell>
-          <cell r="F5">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="17">
-          <cell r="A17" t="str">
-            <v>Payroll Taxes</v>
-          </cell>
-          <cell r="B17">
-            <v>0</v>
-          </cell>
-          <cell r="C17">
-            <v>0</v>
-          </cell>
-          <cell r="D17">
-            <v>0</v>
-          </cell>
-          <cell r="E17">
-            <v>0</v>
-          </cell>
-          <cell r="F17">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="24">
-          <cell r="A24" t="str">
-            <v>Net Profit</v>
-          </cell>
-          <cell r="B24">
-            <v>0</v>
-          </cell>
-          <cell r="C24">
-            <v>0</v>
-          </cell>
-          <cell r="D24">
-            <v>0</v>
-          </cell>
-          <cell r="E24">
-            <v>0</v>
-          </cell>
-          <cell r="F24">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="28">
-          <cell r="A28" t="str">
-            <v>Net Income Taxes</v>
-          </cell>
-          <cell r="B28">
-            <v>0</v>
-          </cell>
-          <cell r="C28">
-            <v>0</v>
-          </cell>
-          <cell r="D28">
-            <v>0</v>
-          </cell>
-          <cell r="E28">
-            <v>0</v>
-          </cell>
-          <cell r="F28">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="29">
-          <cell r="A29" t="str">
-            <v>Total Taxes</v>
-          </cell>
-          <cell r="B29">
-            <v>0</v>
-          </cell>
-          <cell r="C29">
-            <v>0</v>
-          </cell>
-          <cell r="D29">
-            <v>0</v>
-          </cell>
-          <cell r="E29">
-            <v>0</v>
-          </cell>
-          <cell r="F29">
-            <v>0</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="6">
-        <row r="1">
-          <cell r="D1" t="str">
-            <v>Units</v>
-          </cell>
-          <cell r="G1" t="str">
-            <v>Fixed Costs</v>
-          </cell>
-          <cell r="H1" t="str">
-            <v>Revenue</v>
-          </cell>
-          <cell r="J1" t="str">
-            <v>Total Costs</v>
-          </cell>
-        </row>
-        <row r="2">
-          <cell r="D2">
-            <v>0</v>
-          </cell>
-          <cell r="G2">
-            <v>0</v>
-          </cell>
-          <cell r="H2">
-            <v>0</v>
-          </cell>
-          <cell r="J2">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="3">
-          <cell r="D3">
-            <v>0</v>
-          </cell>
-          <cell r="G3">
-            <v>0</v>
-          </cell>
-          <cell r="H3">
-            <v>0</v>
-          </cell>
-          <cell r="J3">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="4">
-          <cell r="D4">
-            <v>0</v>
-          </cell>
-          <cell r="G4">
-            <v>0</v>
-          </cell>
-          <cell r="H4">
-            <v>0</v>
-          </cell>
-          <cell r="J4">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="5">
-          <cell r="D5">
-            <v>0</v>
-          </cell>
-          <cell r="G5">
-            <v>0</v>
-          </cell>
-          <cell r="H5">
-            <v>0</v>
-          </cell>
-          <cell r="J5">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="6">
-          <cell r="D6">
-            <v>0</v>
-          </cell>
-          <cell r="G6">
-            <v>0</v>
-          </cell>
-          <cell r="H6">
-            <v>0</v>
-          </cell>
-          <cell r="J6">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="7">
-          <cell r="D7">
-            <v>0</v>
-          </cell>
-          <cell r="G7">
-            <v>0</v>
-          </cell>
-          <cell r="H7">
-            <v>0</v>
-          </cell>
-          <cell r="J7">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="8">
-          <cell r="D8">
-            <v>0</v>
-          </cell>
-          <cell r="G8">
-            <v>0</v>
-          </cell>
-          <cell r="H8">
-            <v>0</v>
-          </cell>
-          <cell r="J8">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="9">
-          <cell r="D9">
-            <v>0</v>
-          </cell>
-          <cell r="G9">
-            <v>0</v>
-          </cell>
-          <cell r="H9">
-            <v>0</v>
-          </cell>
-          <cell r="J9">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="10">
-          <cell r="D10">
-            <v>0</v>
-          </cell>
-          <cell r="G10">
-            <v>0</v>
-          </cell>
-          <cell r="H10">
-            <v>0</v>
-          </cell>
-          <cell r="J10">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="11">
-          <cell r="D11">
-            <v>0</v>
-          </cell>
-          <cell r="G11">
-            <v>0</v>
-          </cell>
-          <cell r="H11">
-            <v>0</v>
-          </cell>
-          <cell r="J11">
-            <v>0</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="7"/>
-      <sheetData sheetId="8"/>
-      <sheetData sheetId="9"/>
-      <sheetData sheetId="10"/>
-      <sheetData sheetId="11"/>
-      <sheetData sheetId="12"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
-<file path=xl/externalLinks/externalLink3.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="Break-even"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0" refreshError="1"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -5475,17 +4840,15 @@
   </sheetPr>
   <dimension ref="A1:M26"/>
   <sheetViews>
-    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="44.5703125" style="3" bestFit="1" customWidth="1"/>
     <col min="2" max="6" width="8.5703125" style="3" customWidth="1"/>
-    <col min="7" max="7" width="12.42578125" style="3" customWidth="1"/>
-    <col min="8" max="8" width="6.85546875" style="3" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="4" style="3" customWidth="1"/>
+    <col min="7" max="7" width="12.42578125" style="3" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7.7109375" style="3" customWidth="1"/>
+    <col min="9" max="9" width="18.85546875" style="3" bestFit="1" customWidth="1"/>
     <col min="10" max="16384" width="9.140625" style="3"/>
   </cols>
   <sheetData>
@@ -5513,19 +4876,19 @@
       <c r="A2" s="4"/>
       <c r="B2" s="5"/>
       <c r="C2" s="5">
-        <f>Personnel!$B2</f>
+        <f>B2</f>
         <v>0</v>
       </c>
       <c r="D2" s="5">
-        <f>Personnel!$C2</f>
+        <f t="shared" ref="D2:F2" si="0">C2</f>
         <v>0</v>
       </c>
       <c r="E2" s="5">
-        <f>Personnel!$D2</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F2" s="6">
-        <f>Personnel!$E2</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -5533,19 +4896,19 @@
       <c r="A3" s="4"/>
       <c r="B3" s="5"/>
       <c r="C3" s="5">
-        <f>Personnel!$B3</f>
+        <f t="shared" ref="C3:F3" si="1">B3</f>
         <v>0</v>
       </c>
       <c r="D3" s="5">
-        <f>Personnel!$C3</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E3" s="5">
-        <f>Personnel!$D3</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="F3" s="6">
-        <f>Personnel!$E3</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -5553,19 +4916,19 @@
       <c r="A4" s="4"/>
       <c r="B4" s="5"/>
       <c r="C4" s="5">
-        <f>Personnel!$B4</f>
+        <f t="shared" ref="C4:F4" si="2">B4</f>
         <v>0</v>
       </c>
       <c r="D4" s="5">
-        <f>Personnel!$C4</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E4" s="5">
-        <f>Personnel!$D4</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="F4" s="6">
-        <f>Personnel!$E4</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -5573,19 +4936,19 @@
       <c r="A5" s="4"/>
       <c r="B5" s="5"/>
       <c r="C5" s="5">
-        <f>Personnel!$B5</f>
+        <f t="shared" ref="C5:F5" si="3">B5</f>
         <v>0</v>
       </c>
       <c r="D5" s="5">
-        <f>Personnel!$C5</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E5" s="5">
-        <f>Personnel!$D5</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="F5" s="6">
-        <f>Personnel!$E5</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -5593,19 +4956,19 @@
       <c r="A6" s="4"/>
       <c r="B6" s="5"/>
       <c r="C6" s="5">
-        <f>Personnel!$B6</f>
+        <f t="shared" ref="C6:F6" si="4">B6</f>
         <v>0</v>
       </c>
       <c r="D6" s="5">
-        <f>Personnel!$C6</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E6" s="5">
-        <f>Personnel!$D6</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="F6" s="6">
-        <f>Personnel!$E6</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -5613,19 +4976,19 @@
       <c r="A7" s="4"/>
       <c r="B7" s="5"/>
       <c r="C7" s="5">
-        <f>Personnel!$B7</f>
+        <f t="shared" ref="C7:F7" si="5">B7</f>
         <v>0</v>
       </c>
       <c r="D7" s="5">
-        <f>Personnel!$C7</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="E7" s="5">
-        <f>Personnel!$D7</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="F7" s="6">
-        <f>Personnel!$E7</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -5683,212 +5046,205 @@
       <c r="F10" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="G10" s="13" t="s">
+      <c r="G10" s="102" t="s">
         <v>8</v>
       </c>
-      <c r="H10" s="14" t="s">
+      <c r="H10" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="I10" s="15"/>
-      <c r="J10" s="15"/>
+      <c r="J10" s="14"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A11" s="16">
+      <c r="A11" s="15">
         <f>A2</f>
         <v>0</v>
       </c>
-      <c r="B11" s="17">
-        <f>IF(B2&lt;&gt;0,G11,0)</f>
-        <v>0</v>
-      </c>
-      <c r="C11" s="17">
-        <f>IF(C2&lt;&gt;0,IF(B11&lt;&gt;0,B11*(100%+$H11),$G11),0)</f>
-        <v>0</v>
-      </c>
-      <c r="D11" s="17">
-        <f>IF(D2&lt;&gt;0,IF(C11&lt;&gt;0,C11*(100%+$H11),$G11),0)</f>
-        <v>0</v>
-      </c>
-      <c r="E11" s="17">
-        <f>IF(E2&lt;&gt;0,IF(D11&lt;&gt;0,D11*(100%+$H11),$G11),0)</f>
-        <v>0</v>
-      </c>
-      <c r="F11" s="17">
-        <f>IF(F2&lt;&gt;0,IF(E11&lt;&gt;0,E11*(100%+$H11),$G11),0)</f>
-        <v>0</v>
-      </c>
-      <c r="G11" s="18">
-        <v>0</v>
-      </c>
-      <c r="H11" s="19">
+      <c r="B11" s="16">
+        <f>IF(B2=0,0,$G11)</f>
+        <v>0</v>
+      </c>
+      <c r="C11" s="16">
+        <f>IF(C2=0,0,IF(B2=0,$G11,B11*(100%+$H11)))</f>
+        <v>0</v>
+      </c>
+      <c r="D11" s="16">
+        <f>IF(D2=0,0,IF(C2=0,$G11,C11*(100%+$H11)))</f>
+        <v>0</v>
+      </c>
+      <c r="E11" s="16">
+        <f>IF(E2=0,0,IF(D2=0,$G11,D11*(100%+$H11)))</f>
+        <v>0</v>
+      </c>
+      <c r="F11" s="16">
+        <f>IF(F2=0,0,IF(E2=0,$G11,E11*(100%+$H11)))</f>
+        <v>0</v>
+      </c>
+      <c r="G11" s="100">
+        <v>0</v>
+      </c>
+      <c r="H11" s="103">
         <v>0.05</v>
       </c>
-      <c r="I11" s="20"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A12" s="16">
+      <c r="A12" s="15">
         <f>A3</f>
         <v>0</v>
       </c>
-      <c r="B12" s="17">
-        <f>IF(B3&lt;&gt;0,G12,0)</f>
-        <v>0</v>
-      </c>
-      <c r="C12" s="17">
-        <f>IF(C3&lt;&gt;0,IF(B12&lt;&gt;0,B12*(100%+$H12),$G12),0)</f>
-        <v>0</v>
-      </c>
-      <c r="D12" s="17">
-        <f>IF(D3&lt;&gt;0,IF(C12&lt;&gt;0,C12*(100%+$H12),$G12),0)</f>
-        <v>0</v>
-      </c>
-      <c r="E12" s="17">
-        <f>IF(E3&lt;&gt;0,IF(D12&lt;&gt;0,D12*(100%+$H12),$G12),0)</f>
-        <v>0</v>
-      </c>
-      <c r="F12" s="17">
-        <f>IF(F3&lt;&gt;0,IF(E12&lt;&gt;0,E12*(100%+$H12),$G12),0)</f>
-        <v>0</v>
-      </c>
-      <c r="G12" s="18">
-        <v>0</v>
-      </c>
-      <c r="H12" s="19">
+      <c r="B12" s="16">
+        <f>IF(B3=0,0,$G12)</f>
+        <v>0</v>
+      </c>
+      <c r="C12" s="16">
+        <f>IF(C3=0,0,IF(B3=0,$G12,B12*(100%+$H12)))</f>
+        <v>0</v>
+      </c>
+      <c r="D12" s="16">
+        <f>IF(D3=0,0,IF(C3=0,$G12,C12*(100%+$H12)))</f>
+        <v>0</v>
+      </c>
+      <c r="E12" s="16">
+        <f>IF(E3=0,0,IF(D3=0,$G12,D12*(100%+$H12)))</f>
+        <v>0</v>
+      </c>
+      <c r="F12" s="16">
+        <f>IF(F3=0,0,IF(E3=0,$G12,E12*(100%+$H12)))</f>
+        <v>0</v>
+      </c>
+      <c r="G12" s="100">
+        <v>0</v>
+      </c>
+      <c r="H12" s="103">
         <v>0.05</v>
       </c>
-      <c r="I12" s="20"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A13" s="16">
+      <c r="A13" s="15">
         <f>A4</f>
         <v>0</v>
       </c>
-      <c r="B13" s="17">
-        <f>IF(B4&lt;&gt;0,G13,0)</f>
-        <v>0</v>
-      </c>
-      <c r="C13" s="17">
-        <f>IF(C4&lt;&gt;0,IF(B13&lt;&gt;0,B13*(100%+$H13),$G13),0)</f>
-        <v>0</v>
-      </c>
-      <c r="D13" s="17">
-        <f>IF(D4&lt;&gt;0,IF(C13&lt;&gt;0,C13*(100%+$H13),$G13),0)</f>
-        <v>0</v>
-      </c>
-      <c r="E13" s="17">
-        <f>IF(E4&lt;&gt;0,IF(D13&lt;&gt;0,D13*(100%+$H13),$G13),0)</f>
-        <v>0</v>
-      </c>
-      <c r="F13" s="17">
-        <f>IF(F4&lt;&gt;0,IF(E13&lt;&gt;0,E13*(100%+$H13),$G13),0)</f>
-        <v>0</v>
-      </c>
-      <c r="G13" s="18">
-        <v>0</v>
-      </c>
-      <c r="H13" s="19">
+      <c r="B13" s="16">
+        <f>IF(B4=0,0,$G13)</f>
+        <v>0</v>
+      </c>
+      <c r="C13" s="16">
+        <f>IF(C4=0,0,IF(B4=0,$G13,B13*(100%+$H13)))</f>
+        <v>0</v>
+      </c>
+      <c r="D13" s="16">
+        <f>IF(D4=0,0,IF(C4=0,$G13,C13*(100%+$H13)))</f>
+        <v>0</v>
+      </c>
+      <c r="E13" s="16">
+        <f>IF(E4=0,0,IF(D4=0,$G13,D13*(100%+$H13)))</f>
+        <v>0</v>
+      </c>
+      <c r="F13" s="16">
+        <f>IF(F4=0,0,IF(E4=0,$G13,E13*(100%+$H13)))</f>
+        <v>0</v>
+      </c>
+      <c r="G13" s="100">
+        <v>0</v>
+      </c>
+      <c r="H13" s="103">
         <v>0.05</v>
       </c>
-      <c r="I13" s="20"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A14" s="16">
+      <c r="A14" s="15">
         <f>A5</f>
         <v>0</v>
       </c>
-      <c r="B14" s="17">
-        <f>IF(B5&lt;&gt;0,G14,0)</f>
-        <v>0</v>
-      </c>
-      <c r="C14" s="17">
-        <f>IF(C5&lt;&gt;0,IF(B14&lt;&gt;0,B14*(100%+$H14),$G14),0)</f>
-        <v>0</v>
-      </c>
-      <c r="D14" s="17">
-        <f>IF(D5&lt;&gt;0,IF(C14&lt;&gt;0,C14*(100%+$H14),$G14),0)</f>
-        <v>0</v>
-      </c>
-      <c r="E14" s="17">
-        <f>IF(E5&lt;&gt;0,IF(D14&lt;&gt;0,D14*(100%+$H14),$G14),0)</f>
-        <v>0</v>
-      </c>
-      <c r="F14" s="17">
-        <f>IF(F5&lt;&gt;0,IF(E14&lt;&gt;0,E14*(100%+$H14),$G14),0)</f>
-        <v>0</v>
-      </c>
-      <c r="G14" s="18">
-        <v>0</v>
-      </c>
-      <c r="H14" s="19">
+      <c r="B14" s="16">
+        <f>IF(B5=0,0,$G14)</f>
+        <v>0</v>
+      </c>
+      <c r="C14" s="16">
+        <f>IF(C5=0,0,IF(B5=0,$G14,B14*(100%+$H14)))</f>
+        <v>0</v>
+      </c>
+      <c r="D14" s="16">
+        <f>IF(D5=0,0,IF(C5=0,$G14,C14*(100%+$H14)))</f>
+        <v>0</v>
+      </c>
+      <c r="E14" s="16">
+        <f>IF(E5=0,0,IF(D5=0,$G14,D14*(100%+$H14)))</f>
+        <v>0</v>
+      </c>
+      <c r="F14" s="16">
+        <f>IF(F5=0,0,IF(E5=0,$G14,E14*(100%+$H14)))</f>
+        <v>0</v>
+      </c>
+      <c r="G14" s="100">
+        <v>0</v>
+      </c>
+      <c r="H14" s="103">
         <v>0.05</v>
       </c>
-      <c r="I14" s="20"/>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A15" s="16">
+      <c r="A15" s="15">
         <f>A6</f>
         <v>0</v>
       </c>
-      <c r="B15" s="17">
-        <f>IF(B6&lt;&gt;0,G15,0)</f>
-        <v>0</v>
-      </c>
-      <c r="C15" s="17">
-        <f>IF(C6&lt;&gt;0,IF(B15&lt;&gt;0,B15*(100%+$H15),$G15),0)</f>
-        <v>0</v>
-      </c>
-      <c r="D15" s="17">
-        <f>IF(D6&lt;&gt;0,IF(C15&lt;&gt;0,C15*(100%+$H15),$G15),0)</f>
-        <v>0</v>
-      </c>
-      <c r="E15" s="17">
-        <f>IF(E6&lt;&gt;0,IF(D15&lt;&gt;0,D15*(100%+$H15),$G15),0)</f>
-        <v>0</v>
-      </c>
-      <c r="F15" s="17">
-        <f>IF(F6&lt;&gt;0,IF(E15&lt;&gt;0,E15*(100%+$H15),$G15),0)</f>
-        <v>0</v>
-      </c>
-      <c r="G15" s="18">
-        <v>0</v>
-      </c>
-      <c r="H15" s="19">
+      <c r="B15" s="16">
+        <f>IF(B6=0,0,$G15)</f>
+        <v>0</v>
+      </c>
+      <c r="C15" s="16">
+        <f>IF(C6=0,0,IF(B6=0,$G15,B15*(100%+$H15)))</f>
+        <v>0</v>
+      </c>
+      <c r="D15" s="16">
+        <f>IF(D6=0,0,IF(C6=0,$G15,C15*(100%+$H15)))</f>
+        <v>0</v>
+      </c>
+      <c r="E15" s="16">
+        <f>IF(E6=0,0,IF(D6=0,$G15,D15*(100%+$H15)))</f>
+        <v>0</v>
+      </c>
+      <c r="F15" s="16">
+        <f>IF(F6=0,0,IF(E6=0,$G15,E15*(100%+$H15)))</f>
+        <v>0</v>
+      </c>
+      <c r="G15" s="100">
+        <v>0</v>
+      </c>
+      <c r="H15" s="103">
         <v>0.05</v>
       </c>
-      <c r="I15" s="20"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A16" s="16">
+      <c r="A16" s="15">
         <f>A7</f>
         <v>0</v>
       </c>
-      <c r="B16" s="17">
-        <f>IF(B7&lt;&gt;0,G16,0)</f>
-        <v>0</v>
-      </c>
-      <c r="C16" s="17">
+      <c r="B16" s="16">
+        <f>IF(B7=0,0,$G16)</f>
+        <v>0</v>
+      </c>
+      <c r="C16" s="16">
         <f>IF(C7&lt;&gt;0,IF(B16&lt;&gt;0,B16*(100%+$H16),$G16),0)</f>
         <v>0</v>
       </c>
-      <c r="D16" s="17">
+      <c r="D16" s="16">
         <f>IF(D7&lt;&gt;0,IF(C16&lt;&gt;0,C16*(100%+$H16),$G16),0)</f>
         <v>0</v>
       </c>
-      <c r="E16" s="17">
+      <c r="E16" s="16">
         <f>IF(E7&lt;&gt;0,IF(D16&lt;&gt;0,D16*(100%+$H16),$G16),0)</f>
         <v>0</v>
       </c>
-      <c r="F16" s="17">
+      <c r="F16" s="16">
         <f>IF(F7&lt;&gt;0,IF(E16&lt;&gt;0,E16*(100%+$H16),$G16),0)</f>
         <v>0</v>
       </c>
-      <c r="G16" s="18">
-        <v>0</v>
-      </c>
-      <c r="H16" s="19">
+      <c r="G16" s="100">
+        <v>0</v>
+      </c>
+      <c r="H16" s="103">
         <v>0.05</v>
       </c>
-      <c r="I16" s="20"/>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
@@ -5909,234 +5265,255 @@
       <c r="F18" s="2" t="s">
         <v>5</v>
       </c>
+      <c r="G18" s="99" t="s">
+        <v>53</v>
+      </c>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A19" s="21">
+      <c r="A19" s="17">
         <f>A2</f>
         <v>0</v>
       </c>
-      <c r="B19" s="22">
-        <f>B2*B11</f>
-        <v>0</v>
-      </c>
-      <c r="C19" s="22">
-        <f>B19*(100%+$H11)+(C2-B2)*$G11</f>
-        <v>0</v>
-      </c>
-      <c r="D19" s="22">
-        <f>C19*(100%+$H11)+(D2-C2)*$G11</f>
-        <v>0</v>
-      </c>
-      <c r="E19" s="22">
-        <f>D19*(100%+$H11)+(E2-D2)*$G11</f>
-        <v>0</v>
-      </c>
-      <c r="F19" s="23">
-        <f>E19*(100%+$H11)+(F2-E2)*$G11</f>
-        <v>0</v>
-      </c>
-      <c r="J19" s="24"/>
-      <c r="K19" s="24"/>
-      <c r="L19" s="24"/>
-      <c r="M19" s="24"/>
+      <c r="B19" s="18">
+        <f>B2*B11*(12-G19+1)/12</f>
+        <v>0</v>
+      </c>
+      <c r="C19" s="18">
+        <f>B2*C11+(C2-B2)*$G11</f>
+        <v>0</v>
+      </c>
+      <c r="D19" s="18">
+        <f>C2*D11+(D2-C2)*$G11</f>
+        <v>0</v>
+      </c>
+      <c r="E19" s="18">
+        <f>D2*E11+(E2-D2)*$G11</f>
+        <v>0</v>
+      </c>
+      <c r="F19" s="19">
+        <f>E2*F11+(F2-E2)*$G11</f>
+        <v>0</v>
+      </c>
+      <c r="G19" s="101">
+        <v>1</v>
+      </c>
+      <c r="J19" s="20"/>
+      <c r="K19" s="20"/>
+      <c r="L19" s="20"/>
+      <c r="M19" s="20"/>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A20" s="21">
+      <c r="A20" s="17">
         <f>A3</f>
         <v>0</v>
       </c>
-      <c r="B20" s="22">
-        <f>B3*B12</f>
-        <v>0</v>
-      </c>
-      <c r="C20" s="22">
-        <f>B20*(100%+$H12)+(C3-B3)*$G12</f>
-        <v>0</v>
-      </c>
-      <c r="D20" s="22">
-        <f>C20*(100%+$H12)+(D3-C3)*$G12</f>
-        <v>0</v>
-      </c>
-      <c r="E20" s="22">
-        <f>D20*(100%+$H12)+(E3-D3)*$G12</f>
-        <v>0</v>
-      </c>
-      <c r="F20" s="23">
-        <f>E20*(100%+$H12)+(F3-E3)*$G12</f>
-        <v>0</v>
-      </c>
-      <c r="J20" s="24"/>
-      <c r="K20" s="24"/>
-      <c r="L20" s="24"/>
-      <c r="M20" s="24"/>
+      <c r="B20" s="18">
+        <f>B3*B12*(12-G20+1)/12</f>
+        <v>0</v>
+      </c>
+      <c r="C20" s="18">
+        <f>B3*C12+(C3-B3)*$G12</f>
+        <v>0</v>
+      </c>
+      <c r="D20" s="18">
+        <f>C3*D12+(D3-C3)*$G12</f>
+        <v>0</v>
+      </c>
+      <c r="E20" s="18">
+        <f>D3*E12+(E3-D3)*$G12</f>
+        <v>0</v>
+      </c>
+      <c r="F20" s="19">
+        <f>E3*F12+(F3-E3)*$G12</f>
+        <v>0</v>
+      </c>
+      <c r="G20" s="101">
+        <v>1</v>
+      </c>
+      <c r="J20" s="20"/>
+      <c r="K20" s="20"/>
+      <c r="L20" s="20"/>
+      <c r="M20" s="20"/>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A21" s="21">
+      <c r="A21" s="17">
         <f>A4</f>
         <v>0</v>
       </c>
-      <c r="B21" s="22">
-        <f>B4*B13</f>
-        <v>0</v>
-      </c>
-      <c r="C21" s="22">
-        <f>B21*(100%+$H13)+(C4-B4)*$G13</f>
-        <v>0</v>
-      </c>
-      <c r="D21" s="22">
-        <f>C21*(100%+$H13)+(D4-C4)*$G13</f>
-        <v>0</v>
-      </c>
-      <c r="E21" s="22">
-        <f>D21*(100%+$H13)+(E4-D4)*$G13</f>
-        <v>0</v>
-      </c>
-      <c r="F21" s="23">
-        <f>E21*(100%+$H13)+(F4-E4)*$G13</f>
-        <v>0</v>
-      </c>
-      <c r="J21" s="24"/>
-      <c r="K21" s="24"/>
-      <c r="L21" s="24"/>
-      <c r="M21" s="24"/>
+      <c r="B21" s="18">
+        <f>B4*B13*(12-G21+1)/12</f>
+        <v>0</v>
+      </c>
+      <c r="C21" s="18">
+        <f>B4*C13+(C4-B4)*$G13</f>
+        <v>0</v>
+      </c>
+      <c r="D21" s="18">
+        <f>C4*D13+(D4-C4)*$G13</f>
+        <v>0</v>
+      </c>
+      <c r="E21" s="18">
+        <f>D4*E13+(E4-D4)*$G13</f>
+        <v>0</v>
+      </c>
+      <c r="F21" s="19">
+        <f>E4*F13+(F4-E4)*$G13</f>
+        <v>0</v>
+      </c>
+      <c r="G21" s="101">
+        <v>1</v>
+      </c>
+      <c r="J21" s="20"/>
+      <c r="K21" s="20"/>
+      <c r="L21" s="20"/>
+      <c r="M21" s="20"/>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A22" s="21">
+      <c r="A22" s="17">
         <f>A5</f>
         <v>0</v>
       </c>
-      <c r="B22" s="22">
-        <f>B5*B14</f>
-        <v>0</v>
-      </c>
-      <c r="C22" s="22">
-        <f>B22*(100%+$H14)+(C5-B5)*$G14</f>
-        <v>0</v>
-      </c>
-      <c r="D22" s="22">
-        <f>C22*(100%+$H14)+(D5-C5)*$G14</f>
-        <v>0</v>
-      </c>
-      <c r="E22" s="22">
-        <f>D22*(100%+$H14)+(E5-D5)*$G14</f>
-        <v>0</v>
-      </c>
-      <c r="F22" s="23">
-        <f>E22*(100%+$H14)+(F5-E5)*$G14</f>
-        <v>0</v>
-      </c>
-      <c r="J22" s="24"/>
-      <c r="K22" s="24"/>
-      <c r="L22" s="24"/>
-      <c r="M22" s="24"/>
+      <c r="B22" s="18">
+        <f>B5*B14*(12-G22+1)/12</f>
+        <v>0</v>
+      </c>
+      <c r="C22" s="18">
+        <f>B5*C14+(C5-B5)*$G14</f>
+        <v>0</v>
+      </c>
+      <c r="D22" s="18">
+        <f>C5*D14+(D5-C5)*$G14</f>
+        <v>0</v>
+      </c>
+      <c r="E22" s="18">
+        <f>D5*E14+(E5-D5)*$G14</f>
+        <v>0</v>
+      </c>
+      <c r="F22" s="19">
+        <f>E5*F14+(F5-E5)*$G14</f>
+        <v>0</v>
+      </c>
+      <c r="G22" s="101">
+        <v>1</v>
+      </c>
+      <c r="J22" s="20"/>
+      <c r="K22" s="20"/>
+      <c r="L22" s="20"/>
+      <c r="M22" s="20"/>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A23" s="21">
+      <c r="A23" s="17">
         <f>A6</f>
         <v>0</v>
       </c>
-      <c r="B23" s="22">
-        <f>B6*B15</f>
-        <v>0</v>
-      </c>
-      <c r="C23" s="22">
-        <f>B23*(100%+$H15)+(C6-B6)*$G15</f>
-        <v>0</v>
-      </c>
-      <c r="D23" s="22">
-        <f>C23*(100%+$H15)+(D6-C6)*$G15</f>
-        <v>0</v>
-      </c>
-      <c r="E23" s="22">
-        <f>D23*(100%+$H15)+(E6-D6)*$G15</f>
-        <v>0</v>
-      </c>
-      <c r="F23" s="23">
-        <f>E23*(100%+$H15)+(F6-E6)*$G15</f>
-        <v>0</v>
-      </c>
-      <c r="J23" s="24"/>
-      <c r="K23" s="24"/>
-      <c r="L23" s="24"/>
-      <c r="M23" s="24"/>
+      <c r="B23" s="18">
+        <f>B6*B15*(12-G23+1)/12</f>
+        <v>0</v>
+      </c>
+      <c r="C23" s="18">
+        <f>B6*C15+(C6-B6)*$G15</f>
+        <v>0</v>
+      </c>
+      <c r="D23" s="18">
+        <f>C6*D15+(D6-C6)*$G15</f>
+        <v>0</v>
+      </c>
+      <c r="E23" s="18">
+        <f>D6*E15+(E6-D6)*$G15</f>
+        <v>0</v>
+      </c>
+      <c r="F23" s="19">
+        <f>E6*F15+(F6-E6)*$G15</f>
+        <v>0</v>
+      </c>
+      <c r="G23" s="101">
+        <v>1</v>
+      </c>
+      <c r="J23" s="20"/>
+      <c r="K23" s="20"/>
+      <c r="L23" s="20"/>
+      <c r="M23" s="20"/>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A24" s="21">
+      <c r="A24" s="17">
         <f>A7</f>
         <v>0</v>
       </c>
-      <c r="B24" s="22">
-        <f>B7*B16</f>
-        <v>0</v>
-      </c>
-      <c r="C24" s="22">
-        <f>B24*(100%+$H16)+(C7-B7)*$G16</f>
-        <v>0</v>
-      </c>
-      <c r="D24" s="22">
-        <f>C24*(100%+$H16)+(D7-C7)*$G16</f>
-        <v>0</v>
-      </c>
-      <c r="E24" s="22">
-        <f>D24*(100%+$H16)+(E7-D7)*$G16</f>
-        <v>0</v>
-      </c>
-      <c r="F24" s="23">
-        <f>E24*(100%+$H16)+(F7-E7)*$G16</f>
-        <v>0</v>
-      </c>
-      <c r="J24" s="24"/>
-      <c r="K24" s="24"/>
-      <c r="L24" s="24"/>
-      <c r="M24" s="24"/>
+      <c r="B24" s="18">
+        <f>B7*B16*(12-G24+1)/12</f>
+        <v>0</v>
+      </c>
+      <c r="C24" s="18">
+        <f>B7*C16+(C7-B7)*$G16</f>
+        <v>0</v>
+      </c>
+      <c r="D24" s="18">
+        <f>C7*D16+(D7-C7)*$G16</f>
+        <v>0</v>
+      </c>
+      <c r="E24" s="18">
+        <f>D7*E16+(E7-D7)*$G16</f>
+        <v>0</v>
+      </c>
+      <c r="F24" s="19">
+        <f>E7*F16+(F7-E7)*$G16</f>
+        <v>0</v>
+      </c>
+      <c r="G24" s="101">
+        <v>1</v>
+      </c>
+      <c r="J24" s="20"/>
+      <c r="K24" s="20"/>
+      <c r="L24" s="20"/>
+      <c r="M24" s="20"/>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A25" s="25" t="str">
+      <c r="A25" s="21" t="str">
         <f>A8</f>
         <v>Total Employees</v>
       </c>
-      <c r="B25" s="26">
+      <c r="B25" s="22">
         <f>B8</f>
         <v>0</v>
       </c>
-      <c r="C25" s="26">
-        <f t="shared" ref="C25:F25" si="0">C8</f>
-        <v>0</v>
-      </c>
-      <c r="D25" s="26">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E25" s="26">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F25" s="27">
-        <f t="shared" si="0"/>
+      <c r="C25" s="22">
+        <f t="shared" ref="C25:F25" si="6">C8</f>
+        <v>0</v>
+      </c>
+      <c r="D25" s="22">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="E25" s="22">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="F25" s="23">
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A26" s="28" t="s">
+      <c r="A26" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="B26" s="29">
+      <c r="B26" s="25">
         <f>SUM(B19:B24)</f>
         <v>0</v>
       </c>
-      <c r="C26" s="29">
+      <c r="C26" s="25">
         <f>SUM(C19:C24)</f>
         <v>0</v>
       </c>
-      <c r="D26" s="29">
+      <c r="D26" s="25">
         <f>SUM(D19:D24)</f>
         <v>0</v>
       </c>
-      <c r="E26" s="29">
+      <c r="E26" s="25">
         <f>SUM(E19:E24)</f>
         <v>0</v>
       </c>
-      <c r="F26" s="30">
+      <c r="F26" s="26">
         <f>SUM(F19:F24)</f>
         <v>0</v>
       </c>
@@ -6151,231 +5528,14 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1">
-    <tabColor rgb="FFFFFF00"/>
+    <tabColor rgb="FFFF3399"/>
   </sheetPr>
-  <dimension ref="A1:F11"/>
+  <dimension ref="A1"/>
   <sheetViews>
-    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
-    </sheetView>
+    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.5703125" defaultRowHeight="23.25" customHeight="1" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="21.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="6" width="9.28515625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="38" t="s">
-        <v>35</v>
-      </c>
-      <c r="B1" s="39" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="39" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="39" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="39" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="39" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="31" t="s">
-        <v>23</v>
-      </c>
-      <c r="B2" s="40"/>
-      <c r="C2" s="41"/>
-      <c r="D2" s="41"/>
-      <c r="E2" s="41"/>
-      <c r="F2" s="42"/>
-    </row>
-    <row r="3" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="33" t="s">
-        <v>34</v>
-      </c>
-      <c r="B3" s="34">
-        <v>200000</v>
-      </c>
-      <c r="C3" s="35">
-        <v>300000</v>
-      </c>
-      <c r="D3" s="35">
-        <v>400000</v>
-      </c>
-      <c r="E3" s="35">
-        <v>500000</v>
-      </c>
-      <c r="F3" s="35">
-        <v>600000</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="33" t="s">
-        <v>32</v>
-      </c>
-      <c r="B4" s="34">
-        <v>500000</v>
-      </c>
-      <c r="C4" s="35">
-        <v>550000</v>
-      </c>
-      <c r="D4" s="35">
-        <v>600000</v>
-      </c>
-      <c r="E4" s="35">
-        <v>650000</v>
-      </c>
-      <c r="F4" s="35">
-        <v>700000</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="33" t="s">
-        <v>33</v>
-      </c>
-      <c r="B5" s="34">
-        <v>600000</v>
-      </c>
-      <c r="C5" s="35">
-        <v>700000</v>
-      </c>
-      <c r="D5" s="35">
-        <v>800000</v>
-      </c>
-      <c r="E5" s="35">
-        <v>900000</v>
-      </c>
-      <c r="F5" s="35">
-        <v>1000000</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="36" t="s">
-        <v>36</v>
-      </c>
-      <c r="B6" s="37">
-        <v>1300000</v>
-      </c>
-      <c r="C6" s="37">
-        <v>1550000</v>
-      </c>
-      <c r="D6" s="37">
-        <v>1800000</v>
-      </c>
-      <c r="E6" s="37">
-        <v>2050000</v>
-      </c>
-      <c r="F6" s="37">
-        <v>2300000</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="31" t="s">
-        <v>24</v>
-      </c>
-      <c r="B7" s="32" t="s">
-        <v>1</v>
-      </c>
-      <c r="C7" s="32" t="s">
-        <v>2</v>
-      </c>
-      <c r="D7" s="32" t="s">
-        <v>3</v>
-      </c>
-      <c r="E7" s="32" t="s">
-        <v>4</v>
-      </c>
-      <c r="F7" s="32" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="33" t="s">
-        <v>34</v>
-      </c>
-      <c r="B8" s="34">
-        <v>170000</v>
-      </c>
-      <c r="C8" s="35">
-        <v>255000</v>
-      </c>
-      <c r="D8" s="35">
-        <v>340000</v>
-      </c>
-      <c r="E8" s="35">
-        <v>425000</v>
-      </c>
-      <c r="F8" s="35">
-        <v>510000</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="33" t="s">
-        <v>32</v>
-      </c>
-      <c r="B9" s="34">
-        <v>425000</v>
-      </c>
-      <c r="C9" s="35">
-        <v>467500</v>
-      </c>
-      <c r="D9" s="35">
-        <v>510000</v>
-      </c>
-      <c r="E9" s="35">
-        <v>552500</v>
-      </c>
-      <c r="F9" s="35">
-        <v>595000</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="33" t="s">
-        <v>33</v>
-      </c>
-      <c r="B10" s="34">
-        <v>510000</v>
-      </c>
-      <c r="C10" s="35">
-        <v>595000</v>
-      </c>
-      <c r="D10" s="35">
-        <v>680000</v>
-      </c>
-      <c r="E10" s="35">
-        <v>765000</v>
-      </c>
-      <c r="F10" s="35">
-        <v>850000</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="36" t="s">
-        <v>37</v>
-      </c>
-      <c r="B11" s="37">
-        <v>1105000</v>
-      </c>
-      <c r="C11" s="37">
-        <v>1317500</v>
-      </c>
-      <c r="D11" s="37">
-        <v>1530000</v>
-      </c>
-      <c r="E11" s="37">
-        <v>1742500</v>
-      </c>
-      <c r="F11" s="37">
-        <v>1955000</v>
-      </c>
-    </row>
-  </sheetData>
+  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="12" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -6386,449 +5546,12 @@
   <sheetPr codeName="Sheet3">
     <tabColor rgb="FF00B050"/>
   </sheetPr>
-  <dimension ref="A1:F22"/>
+  <dimension ref="A1"/>
   <sheetViews>
-    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="A20" sqref="A20"/>
-    </sheetView>
+    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="26.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="6" width="9.28515625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="53" t="s">
-        <v>52</v>
-      </c>
-      <c r="B1" s="54" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="54" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="54" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="54" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="54" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="43" t="s">
-        <v>23</v>
-      </c>
-      <c r="B2" s="48">
-        <v>1300000</v>
-      </c>
-      <c r="C2" s="48">
-        <v>1550000</v>
-      </c>
-      <c r="D2" s="48">
-        <v>1800000</v>
-      </c>
-      <c r="E2" s="48">
-        <v>2050000</v>
-      </c>
-      <c r="F2" s="48">
-        <v>2300000</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="44" t="s">
-        <v>24</v>
-      </c>
-      <c r="B3" s="73">
-        <v>1105000</v>
-      </c>
-      <c r="C3" s="73">
-        <v>1317500</v>
-      </c>
-      <c r="D3" s="73">
-        <v>1530000</v>
-      </c>
-      <c r="E3" s="73">
-        <v>1742500</v>
-      </c>
-      <c r="F3" s="73">
-        <v>1955000</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="45" t="s">
-        <v>25</v>
-      </c>
-      <c r="B4" s="73">
-        <v>1105000</v>
-      </c>
-      <c r="C4" s="73">
-        <v>1317500</v>
-      </c>
-      <c r="D4" s="73">
-        <v>1530000</v>
-      </c>
-      <c r="E4" s="73">
-        <v>1742500</v>
-      </c>
-      <c r="F4" s="73">
-        <v>1955000</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="44" t="s">
-        <v>26</v>
-      </c>
-      <c r="B5" s="74">
-        <v>195000</v>
-      </c>
-      <c r="C5" s="74">
-        <v>232500</v>
-      </c>
-      <c r="D5" s="74">
-        <v>270000</v>
-      </c>
-      <c r="E5" s="74">
-        <v>307500</v>
-      </c>
-      <c r="F5" s="74">
-        <v>345000</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="44" t="s">
-        <v>27</v>
-      </c>
-      <c r="B6" s="47">
-        <v>0.15</v>
-      </c>
-      <c r="C6" s="47">
-        <v>0.15</v>
-      </c>
-      <c r="D6" s="47">
-        <v>0.15</v>
-      </c>
-      <c r="E6" s="47">
-        <v>0.15</v>
-      </c>
-      <c r="F6" s="47">
-        <v>0.15</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="43" t="s">
-        <v>15</v>
-      </c>
-      <c r="B7" s="55"/>
-      <c r="C7" s="76"/>
-      <c r="D7" s="76"/>
-      <c r="E7" s="76"/>
-      <c r="F7" s="77"/>
-    </row>
-    <row r="8" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="46" t="s">
-        <v>28</v>
-      </c>
-      <c r="B8" s="73">
-        <v>110000</v>
-      </c>
-      <c r="C8" s="73">
-        <v>115500</v>
-      </c>
-      <c r="D8" s="73">
-        <v>121275</v>
-      </c>
-      <c r="E8" s="73">
-        <v>127338.75</v>
-      </c>
-      <c r="F8" s="73">
-        <v>133705.6875</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="49" t="s">
-        <v>19</v>
-      </c>
-      <c r="B9" s="73">
-        <v>10000</v>
-      </c>
-      <c r="C9" s="75">
-        <v>10500</v>
-      </c>
-      <c r="D9" s="75">
-        <v>11025</v>
-      </c>
-      <c r="E9" s="75">
-        <v>11576.25</v>
-      </c>
-      <c r="F9" s="75">
-        <v>12155.0625</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="50" t="s">
-        <v>20</v>
-      </c>
-      <c r="B10" s="73">
-        <v>15000</v>
-      </c>
-      <c r="C10" s="75">
-        <v>15000</v>
-      </c>
-      <c r="D10" s="75">
-        <v>15000</v>
-      </c>
-      <c r="E10" s="75">
-        <v>15000</v>
-      </c>
-      <c r="F10" s="75">
-        <v>15000</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="49" t="s">
-        <v>22</v>
-      </c>
-      <c r="B11" s="73">
-        <v>12000</v>
-      </c>
-      <c r="C11" s="75">
-        <v>12000</v>
-      </c>
-      <c r="D11" s="75">
-        <v>12000</v>
-      </c>
-      <c r="E11" s="75">
-        <v>12000</v>
-      </c>
-      <c r="F11" s="75">
-        <v>12000</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="49" t="s">
-        <v>16</v>
-      </c>
-      <c r="B12" s="73">
-        <v>7000</v>
-      </c>
-      <c r="C12" s="75">
-        <v>7350</v>
-      </c>
-      <c r="D12" s="75">
-        <v>7717.5</v>
-      </c>
-      <c r="E12" s="75">
-        <v>8103.375</v>
-      </c>
-      <c r="F12" s="75">
-        <v>8508.5437500000007</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="49" t="s">
-        <v>14</v>
-      </c>
-      <c r="B13" s="73">
-        <v>5000</v>
-      </c>
-      <c r="C13" s="75">
-        <v>5250</v>
-      </c>
-      <c r="D13" s="75">
-        <v>5512.5</v>
-      </c>
-      <c r="E13" s="75">
-        <v>5788.125</v>
-      </c>
-      <c r="F13" s="75">
-        <v>6077.53125</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="49" t="s">
-        <v>12</v>
-      </c>
-      <c r="B14" s="73">
-        <v>2500</v>
-      </c>
-      <c r="C14" s="75">
-        <v>2625</v>
-      </c>
-      <c r="D14" s="75">
-        <v>2756.25</v>
-      </c>
-      <c r="E14" s="75">
-        <v>2894.0625</v>
-      </c>
-      <c r="F14" s="75">
-        <v>3038.765625</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="49" t="s">
-        <v>17</v>
-      </c>
-      <c r="B15" s="73">
-        <v>16500</v>
-      </c>
-      <c r="C15" s="75">
-        <v>17325</v>
-      </c>
-      <c r="D15" s="75">
-        <v>18191.25</v>
-      </c>
-      <c r="E15" s="75">
-        <v>19100.8125</v>
-      </c>
-      <c r="F15" s="75">
-        <v>20055.853124999998</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="49" t="s">
-        <v>21</v>
-      </c>
-      <c r="B16" s="73">
-        <v>10000</v>
-      </c>
-      <c r="C16" s="75">
-        <v>10500</v>
-      </c>
-      <c r="D16" s="75">
-        <v>11025</v>
-      </c>
-      <c r="E16" s="75">
-        <v>11576.25</v>
-      </c>
-      <c r="F16" s="75">
-        <v>12155.0625</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="51" t="s">
-        <v>13</v>
-      </c>
-      <c r="B17" s="48">
-        <v>188000</v>
-      </c>
-      <c r="C17" s="48">
-        <v>196050</v>
-      </c>
-      <c r="D17" s="48">
-        <v>204502.5</v>
-      </c>
-      <c r="E17" s="48">
-        <v>213377.625</v>
-      </c>
-      <c r="F17" s="48">
-        <v>222696.50625000001</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="44" t="s">
-        <v>29</v>
-      </c>
-      <c r="B18" s="73">
-        <v>7000</v>
-      </c>
-      <c r="C18" s="73">
-        <v>36450</v>
-      </c>
-      <c r="D18" s="73">
-        <v>65497.5</v>
-      </c>
-      <c r="E18" s="73">
-        <v>94122.375</v>
-      </c>
-      <c r="F18" s="73">
-        <v>122303.49374999999</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="44" t="s">
-        <v>18</v>
-      </c>
-      <c r="B19" s="73">
-        <v>22000</v>
-      </c>
-      <c r="C19" s="73">
-        <v>51450</v>
-      </c>
-      <c r="D19" s="73">
-        <v>80497.5</v>
-      </c>
-      <c r="E19" s="73">
-        <v>109122.375</v>
-      </c>
-      <c r="F19" s="73">
-        <v>137303.49374999999</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="44" t="s">
-        <v>90</v>
-      </c>
-      <c r="B20" s="73">
-        <v>2100</v>
-      </c>
-      <c r="C20" s="73">
-        <v>10935</v>
-      </c>
-      <c r="D20" s="73">
-        <v>19649.25</v>
-      </c>
-      <c r="E20" s="73">
-        <v>28236.712499999998</v>
-      </c>
-      <c r="F20" s="73">
-        <v>36691.048124999994</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="43" t="s">
-        <v>30</v>
-      </c>
-      <c r="B21" s="48">
-        <v>4900</v>
-      </c>
-      <c r="C21" s="48">
-        <v>25515</v>
-      </c>
-      <c r="D21" s="48">
-        <v>45848.25</v>
-      </c>
-      <c r="E21" s="48">
-        <v>65885.662500000006</v>
-      </c>
-      <c r="F21" s="48">
-        <v>85612.445624999993</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="45" t="s">
-        <v>31</v>
-      </c>
-      <c r="B22" s="52">
-        <v>3.7692307692307691E-3</v>
-      </c>
-      <c r="C22" s="52">
-        <v>1.6461290322580646E-2</v>
-      </c>
-      <c r="D22" s="52">
-        <v>2.5471250000000001E-2</v>
-      </c>
-      <c r="E22" s="52">
-        <v>3.2139347560975612E-2</v>
-      </c>
-      <c r="F22" s="52">
-        <v>3.7222802445652174E-2</v>
-      </c>
-    </row>
-  </sheetData>
+  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="12" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -6838,307 +5561,12 @@
   <sheetPr codeName="Sheet4">
     <tabColor theme="1" tint="0.34998626667073579"/>
   </sheetPr>
-  <dimension ref="A1:F16"/>
+  <dimension ref="A1"/>
   <sheetViews>
     <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12" customHeight="1" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="22" bestFit="1" customWidth="1"/>
-    <col min="2" max="6" width="8" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="61" t="s">
-        <v>61</v>
-      </c>
-      <c r="B1" s="62" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="62" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="62" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="62" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="62" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="56" t="s">
-        <v>46</v>
-      </c>
-      <c r="B2" s="63"/>
-      <c r="C2" s="64"/>
-      <c r="D2" s="64"/>
-      <c r="E2" s="64"/>
-      <c r="F2" s="65"/>
-    </row>
-    <row r="3" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="57" t="s">
-        <v>48</v>
-      </c>
-      <c r="B3" s="66"/>
-      <c r="C3" s="67"/>
-      <c r="D3" s="67"/>
-      <c r="E3" s="67"/>
-      <c r="F3" s="68"/>
-    </row>
-    <row r="4" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="58" t="s">
-        <v>47</v>
-      </c>
-      <c r="B4" s="69">
-        <v>19900</v>
-      </c>
-      <c r="C4" s="69">
-        <v>60415</v>
-      </c>
-      <c r="D4" s="69">
-        <v>121263.25</v>
-      </c>
-      <c r="E4" s="69">
-        <v>202148.91250000009</v>
-      </c>
-      <c r="F4" s="69">
-        <v>302761.35812500026</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="59" t="s">
-        <v>45</v>
-      </c>
-      <c r="B5" s="69">
-        <v>19900</v>
-      </c>
-      <c r="C5" s="69">
-        <v>60415</v>
-      </c>
-      <c r="D5" s="69">
-        <v>121263.25</v>
-      </c>
-      <c r="E5" s="69">
-        <v>202148.91250000009</v>
-      </c>
-      <c r="F5" s="69">
-        <v>302761.35812500026</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="57" t="s">
-        <v>42</v>
-      </c>
-      <c r="B6" s="66"/>
-      <c r="C6" s="67"/>
-      <c r="D6" s="67"/>
-      <c r="E6" s="67"/>
-      <c r="F6" s="68"/>
-    </row>
-    <row r="7" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="58" t="s">
-        <v>42</v>
-      </c>
-      <c r="B7" s="69">
-        <v>150000</v>
-      </c>
-      <c r="C7" s="69">
-        <v>150000</v>
-      </c>
-      <c r="D7" s="69">
-        <v>150000</v>
-      </c>
-      <c r="E7" s="69">
-        <v>150000</v>
-      </c>
-      <c r="F7" s="69">
-        <v>150000</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="58" t="s">
-        <v>41</v>
-      </c>
-      <c r="B8" s="69">
-        <v>15000</v>
-      </c>
-      <c r="C8" s="69">
-        <v>30000</v>
-      </c>
-      <c r="D8" s="69">
-        <v>45000</v>
-      </c>
-      <c r="E8" s="69">
-        <v>60000</v>
-      </c>
-      <c r="F8" s="69">
-        <v>75000</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="59" t="s">
-        <v>40</v>
-      </c>
-      <c r="B9" s="69">
-        <v>135000</v>
-      </c>
-      <c r="C9" s="69">
-        <v>120000</v>
-      </c>
-      <c r="D9" s="69">
-        <v>105000</v>
-      </c>
-      <c r="E9" s="69">
-        <v>90000</v>
-      </c>
-      <c r="F9" s="69">
-        <v>75000</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="57" t="s">
-        <v>39</v>
-      </c>
-      <c r="B10" s="70">
-        <v>154900</v>
-      </c>
-      <c r="C10" s="70">
-        <v>180415</v>
-      </c>
-      <c r="D10" s="70">
-        <v>226263.25</v>
-      </c>
-      <c r="E10" s="70">
-        <v>292148.91250000009</v>
-      </c>
-      <c r="F10" s="70">
-        <v>377761.35812500026</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="56" t="s">
-        <v>44</v>
-      </c>
-      <c r="B11" s="60" t="s">
-        <v>1</v>
-      </c>
-      <c r="C11" s="60" t="s">
-        <v>2</v>
-      </c>
-      <c r="D11" s="60" t="s">
-        <v>3</v>
-      </c>
-      <c r="E11" s="60" t="s">
-        <v>4</v>
-      </c>
-      <c r="F11" s="60" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="58" t="s">
-        <v>49</v>
-      </c>
-      <c r="B12" s="69">
-        <v>200000</v>
-      </c>
-      <c r="C12" s="69">
-        <v>200000</v>
-      </c>
-      <c r="D12" s="69">
-        <v>200000</v>
-      </c>
-      <c r="E12" s="69">
-        <v>200000</v>
-      </c>
-      <c r="F12" s="69">
-        <v>200000</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="58" t="s">
-        <v>50</v>
-      </c>
-      <c r="B13" s="69">
-        <v>-50000</v>
-      </c>
-      <c r="C13" s="71">
-        <v>-45100</v>
-      </c>
-      <c r="D13" s="69">
-        <v>-19585</v>
-      </c>
-      <c r="E13" s="69">
-        <v>26263.25</v>
-      </c>
-      <c r="F13" s="69">
-        <v>92148.912500000006</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="58" t="s">
-        <v>51</v>
-      </c>
-      <c r="B14" s="71">
-        <v>4900</v>
-      </c>
-      <c r="C14" s="69">
-        <v>25515</v>
-      </c>
-      <c r="D14" s="69">
-        <v>45848.25</v>
-      </c>
-      <c r="E14" s="69">
-        <v>65885.662500000006</v>
-      </c>
-      <c r="F14" s="69">
-        <v>85612.445624999993</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="57" t="s">
-        <v>43</v>
-      </c>
-      <c r="B15" s="70">
-        <v>154900</v>
-      </c>
-      <c r="C15" s="70">
-        <v>180415</v>
-      </c>
-      <c r="D15" s="70">
-        <v>226263.25</v>
-      </c>
-      <c r="E15" s="70">
-        <v>292148.91249999998</v>
-      </c>
-      <c r="F15" s="70">
-        <v>377761.35812499997</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="56" t="s">
-        <v>38</v>
-      </c>
-      <c r="B16" s="72">
-        <v>154900</v>
-      </c>
-      <c r="C16" s="72">
-        <v>180415</v>
-      </c>
-      <c r="D16" s="72">
-        <v>226263.25</v>
-      </c>
-      <c r="E16" s="72">
-        <v>292148.91250000009</v>
-      </c>
-      <c r="F16" s="72">
-        <v>377761.35812500026</v>
-      </c>
-    </row>
-  </sheetData>
+  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="12" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -7151,7 +5579,7 @@
   <dimension ref="A1:J17"/>
   <sheetViews>
     <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection sqref="A1:B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.2"/>
@@ -7168,401 +5596,401 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A1" s="78" t="s">
-        <v>59</v>
-      </c>
-      <c r="B1" s="78"/>
-      <c r="D1" s="79" t="s">
-        <v>62</v>
-      </c>
-      <c r="E1" s="79" t="s">
-        <v>63</v>
-      </c>
-      <c r="F1" s="79" t="s">
-        <v>64</v>
-      </c>
-      <c r="G1" s="79" t="s">
-        <v>65</v>
-      </c>
-      <c r="H1" s="80" t="s">
-        <v>66</v>
-      </c>
-      <c r="I1" s="80" t="s">
-        <v>67</v>
-      </c>
-      <c r="J1" s="81" t="s">
-        <v>68</v>
+      <c r="A1" s="89" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1" s="89"/>
+      <c r="D1" s="27" t="s">
+        <v>25</v>
+      </c>
+      <c r="E1" s="27" t="s">
+        <v>26</v>
+      </c>
+      <c r="F1" s="27" t="s">
+        <v>27</v>
+      </c>
+      <c r="G1" s="27" t="s">
+        <v>28</v>
+      </c>
+      <c r="H1" s="28" t="s">
+        <v>29</v>
+      </c>
+      <c r="I1" s="28" t="s">
+        <v>30</v>
+      </c>
+      <c r="J1" s="29" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A2" s="82" t="s">
-        <v>57</v>
-      </c>
-      <c r="B2" s="83">
+      <c r="A2" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="B2" s="31">
         <f>IF((B5-B6)=0,0,B7/(B5-B6))</f>
         <v>0</v>
       </c>
-      <c r="D2" s="84">
+      <c r="D2" s="32">
         <f>ROUND($B$2/6*0,0)</f>
         <v>0</v>
       </c>
-      <c r="E2" s="85">
+      <c r="E2" s="33">
         <f t="shared" ref="E2:E11" si="0">B$5</f>
         <v>0</v>
       </c>
-      <c r="F2" s="85">
+      <c r="F2" s="33">
         <f t="shared" ref="F2:F11" si="1">B$6</f>
         <v>0</v>
       </c>
-      <c r="G2" s="85">
+      <c r="G2" s="33">
         <f t="shared" ref="G2:G11" si="2">B$7</f>
         <v>0</v>
       </c>
-      <c r="H2" s="86">
+      <c r="H2" s="34">
         <f t="shared" ref="H2:I11" si="3">$D2*E2</f>
         <v>0</v>
       </c>
-      <c r="I2" s="86">
+      <c r="I2" s="34">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="J2" s="87">
+      <c r="J2" s="35">
         <f>G2+I2</f>
         <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A3" s="82" t="s">
-        <v>54</v>
-      </c>
-      <c r="B3" s="88">
+      <c r="A3" s="30" t="s">
+        <v>18</v>
+      </c>
+      <c r="B3" s="36">
         <f>IF(B5=0,0,B7/(1-B6/B5))</f>
         <v>0</v>
       </c>
-      <c r="D3" s="84">
+      <c r="D3" s="32">
         <f>ROUND($B$2/6*1,0)</f>
         <v>0</v>
       </c>
-      <c r="E3" s="85">
+      <c r="E3" s="33">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F3" s="85">
+      <c r="F3" s="33">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G3" s="85">
+      <c r="G3" s="33">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="H3" s="86">
+      <c r="H3" s="34">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="I3" s="86">
+      <c r="I3" s="34">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="J3" s="87">
+      <c r="J3" s="35">
         <f t="shared" ref="J3:J11" si="4">G3+I3</f>
         <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A4" s="89" t="s">
-        <v>60</v>
-      </c>
-      <c r="B4" s="89"/>
-      <c r="D4" s="84">
+      <c r="A4" s="90" t="s">
+        <v>24</v>
+      </c>
+      <c r="B4" s="90"/>
+      <c r="D4" s="32">
         <f>ROUND($B$2/6*2,0)</f>
         <v>0</v>
       </c>
-      <c r="E4" s="85">
+      <c r="E4" s="33">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F4" s="85">
+      <c r="F4" s="33">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G4" s="85">
+      <c r="G4" s="33">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="H4" s="86">
+      <c r="H4" s="34">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="I4" s="86">
+      <c r="I4" s="34">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="J4" s="87">
+      <c r="J4" s="35">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A5" s="82" t="s">
-        <v>53</v>
-      </c>
-      <c r="B5" s="90">
-        <v>0</v>
-      </c>
-      <c r="D5" s="84">
+      <c r="A5" s="30" t="s">
+        <v>17</v>
+      </c>
+      <c r="B5" s="37">
+        <v>0</v>
+      </c>
+      <c r="D5" s="32">
         <f>ROUND($B$2/6*3,0)</f>
         <v>0</v>
       </c>
-      <c r="E5" s="85">
+      <c r="E5" s="33">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F5" s="85">
+      <c r="F5" s="33">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G5" s="85">
+      <c r="G5" s="33">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="H5" s="86">
+      <c r="H5" s="34">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="I5" s="86">
+      <c r="I5" s="34">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="J5" s="87">
+      <c r="J5" s="35">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A6" s="82" t="s">
-        <v>55</v>
-      </c>
-      <c r="B6" s="90">
-        <v>0</v>
-      </c>
-      <c r="D6" s="84">
+      <c r="A6" s="30" t="s">
+        <v>19</v>
+      </c>
+      <c r="B6" s="37">
+        <v>0</v>
+      </c>
+      <c r="D6" s="32">
         <f>ROUND($B$2/6*4,0)</f>
         <v>0</v>
       </c>
-      <c r="E6" s="85">
+      <c r="E6" s="33">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F6" s="85">
+      <c r="F6" s="33">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G6" s="85">
+      <c r="G6" s="33">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="H6" s="86">
+      <c r="H6" s="34">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="I6" s="86">
+      <c r="I6" s="34">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="J6" s="87">
+      <c r="J6" s="35">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A7" s="82" t="s">
-        <v>58</v>
-      </c>
-      <c r="B7" s="88">
-        <v>0</v>
-      </c>
-      <c r="D7" s="84">
+      <c r="A7" s="30" t="s">
+        <v>22</v>
+      </c>
+      <c r="B7" s="36">
+        <v>0</v>
+      </c>
+      <c r="D7" s="32">
         <f>ROUND($B$2/6*5,0)</f>
         <v>0</v>
       </c>
-      <c r="E7" s="85">
+      <c r="E7" s="33">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F7" s="85">
+      <c r="F7" s="33">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G7" s="85">
+      <c r="G7" s="33">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="H7" s="86">
+      <c r="H7" s="34">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="I7" s="86">
+      <c r="I7" s="34">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="J7" s="87">
+      <c r="J7" s="35">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="D8" s="91">
+      <c r="D8" s="38">
         <f>ROUNDDOWN(B2,0)</f>
         <v>0</v>
       </c>
-      <c r="E8" s="85">
+      <c r="E8" s="33">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F8" s="85">
+      <c r="F8" s="33">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G8" s="85">
+      <c r="G8" s="33">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="H8" s="86">
+      <c r="H8" s="34">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="I8" s="86">
+      <c r="I8" s="34">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="J8" s="87">
+      <c r="J8" s="35">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="D9" s="84">
+      <c r="D9" s="32">
         <f>ROUND($B$2/6*7,0)</f>
         <v>0</v>
       </c>
-      <c r="E9" s="85">
+      <c r="E9" s="33">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F9" s="85">
+      <c r="F9" s="33">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G9" s="85">
+      <c r="G9" s="33">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="H9" s="86">
+      <c r="H9" s="34">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="I9" s="86">
+      <c r="I9" s="34">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="J9" s="87">
+      <c r="J9" s="35">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="D10" s="84">
+      <c r="D10" s="32">
         <f>ROUND($B$2/6*8,0)</f>
         <v>0</v>
       </c>
-      <c r="E10" s="85">
+      <c r="E10" s="33">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F10" s="85">
+      <c r="F10" s="33">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G10" s="85">
+      <c r="G10" s="33">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="H10" s="86">
+      <c r="H10" s="34">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="I10" s="86">
+      <c r="I10" s="34">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="J10" s="87">
+      <c r="J10" s="35">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="D11" s="92">
+      <c r="D11" s="39">
         <f>ROUND($B$2/6*9,0)</f>
         <v>0</v>
       </c>
-      <c r="E11" s="93">
+      <c r="E11" s="40">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F11" s="93">
+      <c r="F11" s="40">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G11" s="93">
+      <c r="G11" s="40">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="H11" s="94">
+      <c r="H11" s="41">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="I11" s="94">
+      <c r="I11" s="41">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="J11" s="95">
+      <c r="J11" s="42">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A13" s="96" t="s">
-        <v>59</v>
-      </c>
-      <c r="B13" s="97"/>
+      <c r="A13" s="91" t="s">
+        <v>23</v>
+      </c>
+      <c r="B13" s="92"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A14" s="146" t="s">
-        <v>54</v>
-      </c>
-      <c r="B14" s="147">
+      <c r="A14" s="87" t="s">
+        <v>18</v>
+      </c>
+      <c r="B14" s="88">
         <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A15" s="98" t="s">
-        <v>60</v>
-      </c>
-      <c r="B15" s="99"/>
+      <c r="A15" s="93" t="s">
+        <v>24</v>
+      </c>
+      <c r="B15" s="94"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A16" s="100" t="s">
-        <v>56</v>
-      </c>
-      <c r="B16" s="101">
+      <c r="A16" s="43" t="s">
+        <v>20</v>
+      </c>
+      <c r="B16" s="44">
         <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A17" s="100" t="s">
-        <v>58</v>
-      </c>
-      <c r="B17" s="102">
+      <c r="A17" s="43" t="s">
+        <v>22</v>
+      </c>
+      <c r="B17" s="45">
         <v>0</v>
       </c>
     </row>
@@ -7587,175 +6015,175 @@
   <dimension ref="S1:X8"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="T8" sqref="T8"/>
+      <selection activeCell="S1" sqref="S1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="18" width="9.140625" style="103"/>
-    <col min="19" max="19" width="16.85546875" style="143" bestFit="1" customWidth="1"/>
-    <col min="20" max="24" width="10.85546875" style="143" bestFit="1" customWidth="1"/>
-    <col min="25" max="16384" width="9.140625" style="103"/>
+    <col min="1" max="18" width="9.140625" style="46"/>
+    <col min="19" max="19" width="16.85546875" style="84" bestFit="1" customWidth="1"/>
+    <col min="20" max="24" width="9.140625" style="84" customWidth="1"/>
+    <col min="25" max="16384" width="9.140625" style="46"/>
   </cols>
   <sheetData>
     <row r="1" spans="19:24" x14ac:dyDescent="0.25">
-      <c r="T1" s="145" t="s">
-        <v>70</v>
-      </c>
-      <c r="U1" s="145" t="s">
-        <v>71</v>
-      </c>
-      <c r="V1" s="145" t="s">
-        <v>72</v>
-      </c>
-      <c r="W1" s="145" t="s">
-        <v>73</v>
-      </c>
-      <c r="X1" s="145" t="s">
-        <v>74</v>
+      <c r="T1" s="86" t="s">
+        <v>33</v>
+      </c>
+      <c r="U1" s="86" t="s">
+        <v>34</v>
+      </c>
+      <c r="V1" s="86" t="s">
+        <v>35</v>
+      </c>
+      <c r="W1" s="86" t="s">
+        <v>36</v>
+      </c>
+      <c r="X1" s="86" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="2" spans="19:24" x14ac:dyDescent="0.25">
-      <c r="S2" s="145" t="s">
-        <v>17</v>
-      </c>
-      <c r="T2" s="144">
-        <v>16500</v>
-      </c>
-      <c r="U2" s="144">
-        <v>17325</v>
-      </c>
-      <c r="V2" s="144">
-        <v>18191.25</v>
-      </c>
-      <c r="W2" s="144">
-        <v>19100.810000000001</v>
-      </c>
-      <c r="X2" s="144">
-        <v>20055.849999999999</v>
+      <c r="S2" s="86" t="s">
+        <v>12</v>
+      </c>
+      <c r="T2" s="85">
+        <v>0</v>
+      </c>
+      <c r="U2" s="85">
+        <v>0</v>
+      </c>
+      <c r="V2" s="85">
+        <v>0</v>
+      </c>
+      <c r="W2" s="85">
+        <v>0</v>
+      </c>
+      <c r="X2" s="85">
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="19:24" x14ac:dyDescent="0.25">
-      <c r="S3" s="145" t="s">
-        <v>88</v>
-      </c>
-      <c r="T3" s="144">
-        <v>2100</v>
-      </c>
-      <c r="U3" s="144">
-        <v>10935</v>
-      </c>
-      <c r="V3" s="144">
-        <v>19649.25</v>
-      </c>
-      <c r="W3" s="144">
-        <v>28236.71</v>
-      </c>
-      <c r="X3" s="144">
-        <v>36691.050000000003</v>
+      <c r="S3" s="86" t="s">
+        <v>51</v>
+      </c>
+      <c r="T3" s="85">
+        <v>0</v>
+      </c>
+      <c r="U3" s="85">
+        <v>0</v>
+      </c>
+      <c r="V3" s="85">
+        <v>0</v>
+      </c>
+      <c r="W3" s="85">
+        <v>0</v>
+      </c>
+      <c r="X3" s="85">
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="19:24" x14ac:dyDescent="0.25">
-      <c r="S4" s="145" t="s">
-        <v>89</v>
-      </c>
-      <c r="T4" s="144">
+      <c r="S4" s="86" t="s">
+        <v>52</v>
+      </c>
+      <c r="T4" s="85">
         <f>T2+T3</f>
-        <v>18600</v>
-      </c>
-      <c r="U4" s="144">
+        <v>0</v>
+      </c>
+      <c r="U4" s="85">
         <f t="shared" ref="U4:X4" si="0">U2+U3</f>
-        <v>28260</v>
-      </c>
-      <c r="V4" s="144">
+        <v>0</v>
+      </c>
+      <c r="V4" s="85">
         <f t="shared" si="0"/>
-        <v>37840.5</v>
-      </c>
-      <c r="W4" s="144">
+        <v>0</v>
+      </c>
+      <c r="W4" s="85">
         <f t="shared" si="0"/>
-        <v>47337.520000000004</v>
-      </c>
-      <c r="X4" s="144">
+        <v>0</v>
+      </c>
+      <c r="X4" s="85">
         <f t="shared" si="0"/>
-        <v>56746.9</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="19:24" x14ac:dyDescent="0.25">
-      <c r="S5" s="145"/>
-      <c r="T5" s="145" t="s">
-        <v>70</v>
-      </c>
-      <c r="U5" s="145" t="s">
-        <v>71</v>
-      </c>
-      <c r="V5" s="145" t="s">
-        <v>72</v>
-      </c>
-      <c r="W5" s="145" t="s">
-        <v>73</v>
-      </c>
-      <c r="X5" s="145" t="s">
-        <v>74</v>
+      <c r="S5" s="86"/>
+      <c r="T5" s="86" t="s">
+        <v>33</v>
+      </c>
+      <c r="U5" s="86" t="s">
+        <v>34</v>
+      </c>
+      <c r="V5" s="86" t="s">
+        <v>35</v>
+      </c>
+      <c r="W5" s="86" t="s">
+        <v>36</v>
+      </c>
+      <c r="X5" s="86" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="6" spans="19:24" x14ac:dyDescent="0.25">
-      <c r="S6" s="145" t="s">
-        <v>30</v>
-      </c>
-      <c r="T6" s="144">
-        <v>4900</v>
-      </c>
-      <c r="U6" s="144">
-        <v>25515</v>
-      </c>
-      <c r="V6" s="144">
-        <v>45848.25</v>
-      </c>
-      <c r="W6" s="144">
-        <v>65885.66</v>
-      </c>
-      <c r="X6" s="144">
-        <v>85612.45</v>
+      <c r="S6" s="86" t="s">
+        <v>16</v>
+      </c>
+      <c r="T6" s="85">
+        <v>0</v>
+      </c>
+      <c r="U6" s="85">
+        <v>0</v>
+      </c>
+      <c r="V6" s="85">
+        <v>0</v>
+      </c>
+      <c r="W6" s="85">
+        <v>0</v>
+      </c>
+      <c r="X6" s="85">
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="19:24" x14ac:dyDescent="0.25">
-      <c r="S7" s="145" t="s">
-        <v>26</v>
-      </c>
-      <c r="T7" s="144">
-        <v>195000</v>
-      </c>
-      <c r="U7" s="144">
-        <v>232500</v>
-      </c>
-      <c r="V7" s="144">
-        <v>270000</v>
-      </c>
-      <c r="W7" s="144">
-        <v>307500</v>
-      </c>
-      <c r="X7" s="144">
-        <v>345000</v>
+      <c r="S7" s="86" t="s">
+        <v>15</v>
+      </c>
+      <c r="T7" s="85">
+        <v>0</v>
+      </c>
+      <c r="U7" s="85">
+        <v>0</v>
+      </c>
+      <c r="V7" s="85">
+        <v>0</v>
+      </c>
+      <c r="W7" s="85">
+        <v>0</v>
+      </c>
+      <c r="X7" s="85">
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="19:24" x14ac:dyDescent="0.25">
-      <c r="S8" s="145" t="s">
-        <v>23</v>
-      </c>
-      <c r="T8" s="144">
-        <v>1300000</v>
-      </c>
-      <c r="U8" s="144">
-        <v>1550000</v>
-      </c>
-      <c r="V8" s="144">
-        <v>1800000</v>
-      </c>
-      <c r="W8" s="144">
-        <v>2050000</v>
-      </c>
-      <c r="X8" s="144">
-        <v>2300000</v>
+      <c r="S8" s="86" t="s">
+        <v>14</v>
+      </c>
+      <c r="T8" s="85">
+        <v>0</v>
+      </c>
+      <c r="U8" s="85">
+        <v>0</v>
+      </c>
+      <c r="V8" s="85">
+        <v>0</v>
+      </c>
+      <c r="W8" s="85">
+        <v>0</v>
+      </c>
+      <c r="X8" s="85">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -7771,161 +6199,159 @@
   </sheetPr>
   <dimension ref="A1:F9"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
-    </sheetView>
+    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="37" style="106" bestFit="1" customWidth="1"/>
-    <col min="2" max="6" width="14.28515625" style="106" customWidth="1"/>
-    <col min="7" max="7" width="9.140625" style="106"/>
-    <col min="8" max="8" width="23" style="106" bestFit="1" customWidth="1"/>
-    <col min="9" max="16384" width="9.140625" style="106"/>
+    <col min="1" max="1" width="37" style="49" bestFit="1" customWidth="1"/>
+    <col min="2" max="6" width="14.28515625" style="49" customWidth="1"/>
+    <col min="7" max="7" width="9.140625" style="49"/>
+    <col min="8" max="8" width="23" style="49" bestFit="1" customWidth="1"/>
+    <col min="9" max="16384" width="9.140625" style="49"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A1" s="104" t="s">
-        <v>69</v>
-      </c>
-      <c r="B1" s="104" t="s">
-        <v>70</v>
-      </c>
-      <c r="C1" s="104" t="s">
-        <v>71</v>
-      </c>
-      <c r="D1" s="104" t="s">
-        <v>72</v>
-      </c>
-      <c r="E1" s="104" t="s">
-        <v>73</v>
-      </c>
-      <c r="F1" s="105" t="s">
-        <v>74</v>
+      <c r="A1" s="47" t="s">
+        <v>32</v>
+      </c>
+      <c r="B1" s="47" t="s">
+        <v>33</v>
+      </c>
+      <c r="C1" s="47" t="s">
+        <v>34</v>
+      </c>
+      <c r="D1" s="47" t="s">
+        <v>35</v>
+      </c>
+      <c r="E1" s="47" t="s">
+        <v>36</v>
+      </c>
+      <c r="F1" s="48" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A2" s="107" t="s">
-        <v>23</v>
-      </c>
-      <c r="B2" s="108">
-        <v>0</v>
-      </c>
-      <c r="C2" s="108">
-        <v>0</v>
-      </c>
-      <c r="D2" s="108">
-        <v>0</v>
-      </c>
-      <c r="E2" s="108">
-        <v>0</v>
-      </c>
-      <c r="F2" s="109">
+      <c r="A2" s="50" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2" s="51">
+        <v>0</v>
+      </c>
+      <c r="C2" s="51">
+        <v>0</v>
+      </c>
+      <c r="D2" s="51">
+        <v>0</v>
+      </c>
+      <c r="E2" s="51">
+        <v>0</v>
+      </c>
+      <c r="F2" s="52">
         <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A3" s="110" t="s">
-        <v>75</v>
-      </c>
-      <c r="B3" s="111"/>
-      <c r="C3" s="112"/>
-      <c r="D3" s="112"/>
-      <c r="E3" s="112"/>
-      <c r="F3" s="113"/>
+      <c r="A3" s="53" t="s">
+        <v>38</v>
+      </c>
+      <c r="B3" s="54"/>
+      <c r="C3" s="55"/>
+      <c r="D3" s="55"/>
+      <c r="E3" s="55"/>
+      <c r="F3" s="56"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A4" s="114"/>
-      <c r="B4" s="141"/>
-      <c r="C4" s="141"/>
-      <c r="D4" s="141"/>
-      <c r="E4" s="141"/>
-      <c r="F4" s="142"/>
+      <c r="A4" s="57"/>
+      <c r="B4" s="82"/>
+      <c r="C4" s="82"/>
+      <c r="D4" s="82"/>
+      <c r="E4" s="82"/>
+      <c r="F4" s="83"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A5" s="114"/>
-      <c r="B5" s="141"/>
-      <c r="C5" s="141"/>
-      <c r="D5" s="141"/>
-      <c r="E5" s="141"/>
-      <c r="F5" s="142"/>
+      <c r="A5" s="57"/>
+      <c r="B5" s="82"/>
+      <c r="C5" s="82"/>
+      <c r="D5" s="82"/>
+      <c r="E5" s="82"/>
+      <c r="F5" s="83"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A6" s="110" t="s">
-        <v>76</v>
-      </c>
-      <c r="B6" s="111"/>
-      <c r="C6" s="112"/>
-      <c r="D6" s="112"/>
-      <c r="E6" s="112"/>
-      <c r="F6" s="113"/>
+      <c r="A6" s="53" t="s">
+        <v>39</v>
+      </c>
+      <c r="B6" s="54"/>
+      <c r="C6" s="55"/>
+      <c r="D6" s="55"/>
+      <c r="E6" s="55"/>
+      <c r="F6" s="56"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A7" s="115" t="s">
-        <v>19</v>
-      </c>
-      <c r="B7" s="139">
-        <v>0</v>
-      </c>
-      <c r="C7" s="139">
-        <v>0</v>
-      </c>
-      <c r="D7" s="139">
-        <v>0</v>
-      </c>
-      <c r="E7" s="139">
-        <v>0</v>
-      </c>
-      <c r="F7" s="140">
+      <c r="A7" s="58" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" s="80">
+        <v>0</v>
+      </c>
+      <c r="C7" s="80">
+        <v>0</v>
+      </c>
+      <c r="D7" s="80">
+        <v>0</v>
+      </c>
+      <c r="E7" s="80">
+        <v>0</v>
+      </c>
+      <c r="F7" s="81">
         <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A8" s="116" t="s">
-        <v>77</v>
-      </c>
-      <c r="B8" s="117">
+      <c r="A8" s="59" t="s">
+        <v>40</v>
+      </c>
+      <c r="B8" s="60">
         <f>SUM(B4:B7)</f>
         <v>0</v>
       </c>
-      <c r="C8" s="117">
+      <c r="C8" s="60">
         <f>SUM(C4:C7)</f>
         <v>0</v>
       </c>
-      <c r="D8" s="117">
+      <c r="D8" s="60">
         <f>SUM(D4:D7)</f>
         <v>0</v>
       </c>
-      <c r="E8" s="117">
+      <c r="E8" s="60">
         <f>SUM(E4:E7)</f>
         <v>0</v>
       </c>
-      <c r="F8" s="118">
+      <c r="F8" s="61">
         <f>SUM(F4:F7)</f>
         <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A9" s="119" t="s">
-        <v>78</v>
-      </c>
-      <c r="B9" s="120">
+      <c r="A9" s="62" t="s">
+        <v>41</v>
+      </c>
+      <c r="B9" s="63">
         <f>IF(B2=0,0,B8/B2)</f>
         <v>0</v>
       </c>
-      <c r="C9" s="120">
+      <c r="C9" s="63">
         <f>IF(C2=0,0,C8/C2)</f>
         <v>0</v>
       </c>
-      <c r="D9" s="120">
+      <c r="D9" s="63">
         <f>IF(D2=0,0,D8/D2)</f>
         <v>0</v>
       </c>
-      <c r="E9" s="120">
+      <c r="E9" s="63">
         <f>IF(E2=0,0,E8/E2)</f>
         <v>0</v>
       </c>
-      <c r="F9" s="121">
+      <c r="F9" s="64">
         <f>IF(F2=0,0,F8/F2)</f>
         <v>0</v>
       </c>
@@ -7944,270 +6370,225 @@
   <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="25.85546875" style="138" bestFit="1" customWidth="1"/>
-    <col min="2" max="6" width="14.42578125" style="106" customWidth="1"/>
-    <col min="7" max="7" width="9.140625" style="106"/>
-    <col min="8" max="8" width="15.85546875" style="106" bestFit="1" customWidth="1"/>
-    <col min="9" max="16384" width="9.140625" style="106"/>
+    <col min="1" max="1" width="25.85546875" style="79" bestFit="1" customWidth="1"/>
+    <col min="2" max="6" width="9.140625" style="49" customWidth="1"/>
+    <col min="7" max="7" width="9.140625" style="49"/>
+    <col min="8" max="8" width="9.28515625" style="49" customWidth="1"/>
+    <col min="9" max="16384" width="9.140625" style="49"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="12" t="s">
-        <v>79</v>
-      </c>
-      <c r="B1" s="122" t="s">
+        <v>42</v>
+      </c>
+      <c r="B1" s="65" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="122" t="s">
+      <c r="C1" s="65" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="122" t="s">
+      <c r="D1" s="65" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="122" t="s">
+      <c r="E1" s="65" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="122" t="s">
+      <c r="F1" s="65" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A2" s="123" t="s">
-        <v>23</v>
-      </c>
-      <c r="B2" s="124">
-        <f>'[2]Profit and loss'!$B2</f>
-        <v>0</v>
-      </c>
-      <c r="C2" s="124">
-        <f>'[2]Profit and loss'!$C2</f>
-        <v>0</v>
-      </c>
-      <c r="D2" s="124">
-        <f>'[2]Profit and loss'!$D2</f>
-        <v>0</v>
-      </c>
-      <c r="E2" s="124">
-        <f>'[2]Profit and loss'!$E2</f>
-        <v>0</v>
-      </c>
-      <c r="F2" s="124">
-        <f>'[2]Profit and loss'!$F2</f>
-        <v>0</v>
-      </c>
+      <c r="A2" s="66" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2" s="67"/>
+      <c r="C2" s="67"/>
+      <c r="D2" s="67"/>
+      <c r="E2" s="67"/>
+      <c r="F2" s="67"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A3" s="125" t="s">
-        <v>30</v>
-      </c>
-      <c r="B3" s="124">
-        <f>'[2]Profit and loss'!B24</f>
-        <v>0</v>
-      </c>
-      <c r="C3" s="124">
-        <f>'[2]Profit and loss'!C24</f>
-        <v>0</v>
-      </c>
-      <c r="D3" s="124">
-        <f>'[2]Profit and loss'!D24</f>
-        <v>0</v>
-      </c>
-      <c r="E3" s="124">
-        <f>'[2]Profit and loss'!E24</f>
-        <v>0</v>
-      </c>
-      <c r="F3" s="124">
-        <f>'[2]Profit and loss'!F24</f>
-        <v>0</v>
-      </c>
+      <c r="A3" s="68" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3" s="67"/>
+      <c r="C3" s="67"/>
+      <c r="D3" s="67"/>
+      <c r="E3" s="67"/>
+      <c r="F3" s="67"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A4" s="123" t="s">
-        <v>80</v>
-      </c>
-      <c r="B4" s="126"/>
-      <c r="C4" s="127"/>
-      <c r="D4" s="127"/>
-      <c r="E4" s="127"/>
-      <c r="F4" s="128"/>
+      <c r="A4" s="66" t="s">
+        <v>43</v>
+      </c>
+      <c r="B4" s="69"/>
+      <c r="C4" s="70"/>
+      <c r="D4" s="70"/>
+      <c r="E4" s="70"/>
+      <c r="F4" s="71"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A5" s="123" t="s">
-        <v>81</v>
-      </c>
-      <c r="B5" s="129">
-        <f>'[2]Profit and loss'!B3</f>
-        <v>0</v>
-      </c>
-      <c r="C5" s="129">
-        <f>'[2]Profit and loss'!C3</f>
-        <v>0</v>
-      </c>
-      <c r="D5" s="129">
-        <f>'[2]Profit and loss'!D3</f>
-        <v>0</v>
-      </c>
-      <c r="E5" s="129">
-        <f>'[2]Profit and loss'!E3</f>
-        <v>0</v>
-      </c>
-      <c r="F5" s="129">
-        <f>'[2]Profit and loss'!F3</f>
-        <v>0</v>
-      </c>
+      <c r="A5" s="66" t="s">
+        <v>44</v>
+      </c>
+      <c r="B5" s="72"/>
+      <c r="C5" s="72"/>
+      <c r="D5" s="72"/>
+      <c r="E5" s="72"/>
+      <c r="F5" s="72"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A6" s="125" t="s">
-        <v>82</v>
-      </c>
-      <c r="B6" s="130">
+      <c r="A6" s="68" t="s">
+        <v>45</v>
+      </c>
+      <c r="B6" s="73">
         <f>IF(B12=0,0,B5/B12)</f>
         <v>0</v>
       </c>
-      <c r="C6" s="130">
+      <c r="C6" s="73">
         <f>IF(C12=0,0,C5/C12)</f>
         <v>0</v>
       </c>
-      <c r="D6" s="130">
+      <c r="D6" s="73">
         <f>IF(D12=0,0,D5/D12)</f>
         <v>0</v>
       </c>
-      <c r="E6" s="130">
+      <c r="E6" s="73">
         <f>IF(E12=0,0,E5/E12)</f>
         <v>0</v>
       </c>
-      <c r="F6" s="130">
+      <c r="F6" s="73">
         <f>IF(F12=0,0,F5/F12)</f>
         <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A7" s="123" t="s">
-        <v>83</v>
-      </c>
-      <c r="B7" s="131"/>
-      <c r="C7" s="132"/>
-      <c r="D7" s="132"/>
-      <c r="E7" s="132"/>
-      <c r="F7" s="133"/>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A8" s="134"/>
-      <c r="B8" s="129"/>
-      <c r="C8" s="129"/>
-      <c r="D8" s="129"/>
-      <c r="E8" s="129"/>
-      <c r="F8" s="129"/>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A9" s="135"/>
-      <c r="B9" s="129"/>
-      <c r="C9" s="129"/>
-      <c r="D9" s="129"/>
-      <c r="E9" s="129"/>
-      <c r="F9" s="129"/>
+      <c r="A7" s="96" t="s">
+        <v>46</v>
+      </c>
+      <c r="B7" s="74"/>
+      <c r="C7" s="75"/>
+      <c r="D7" s="75"/>
+      <c r="E7" s="75"/>
+      <c r="F7" s="76"/>
+    </row>
+    <row r="8" spans="1:6" s="98" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="95"/>
+      <c r="B8" s="97"/>
+      <c r="C8" s="97"/>
+      <c r="D8" s="97"/>
+      <c r="E8" s="97"/>
+      <c r="F8" s="97"/>
+    </row>
+    <row r="9" spans="1:6" s="98" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="95"/>
+      <c r="B9" s="97"/>
+      <c r="C9" s="97"/>
+      <c r="D9" s="97"/>
+      <c r="E9" s="97"/>
+      <c r="F9" s="97"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A10" s="123" t="s">
-        <v>84</v>
-      </c>
-      <c r="B10" s="136">
+      <c r="A10" s="66" t="s">
+        <v>47</v>
+      </c>
+      <c r="B10" s="77">
         <f>SUM(B8:B9)</f>
         <v>0</v>
       </c>
-      <c r="C10" s="137">
+      <c r="C10" s="78">
         <f>SUM(C8:C9)</f>
         <v>0</v>
       </c>
-      <c r="D10" s="137">
+      <c r="D10" s="78">
         <f>SUM(D8:D9)</f>
         <v>0</v>
       </c>
-      <c r="E10" s="137">
+      <c r="E10" s="78">
         <f>SUM(E8:E9)</f>
         <v>0</v>
       </c>
-      <c r="F10" s="137">
+      <c r="F10" s="78">
         <f>SUM(F8:F9)</f>
         <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A11" s="125" t="s">
-        <v>85</v>
-      </c>
-      <c r="B11" s="130">
+      <c r="A11" s="68" t="s">
+        <v>48</v>
+      </c>
+      <c r="B11" s="73">
         <f>IF(B12=0,0,B10/B12)</f>
         <v>0</v>
       </c>
-      <c r="C11" s="130">
+      <c r="C11" s="73">
         <f t="shared" ref="C11:F11" si="0">IF(C12=0,0,C10/C12)</f>
         <v>0</v>
       </c>
-      <c r="D11" s="130">
+      <c r="D11" s="73">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E11" s="130">
+      <c r="E11" s="73">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F11" s="130">
+      <c r="F11" s="73">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A12" s="123" t="s">
-        <v>86</v>
-      </c>
-      <c r="B12" s="124">
+      <c r="A12" s="66" t="s">
+        <v>49</v>
+      </c>
+      <c r="B12" s="67">
         <f>B10+B5</f>
         <v>0</v>
       </c>
-      <c r="C12" s="124">
+      <c r="C12" s="67">
         <f>C10+C5</f>
         <v>0</v>
       </c>
-      <c r="D12" s="124">
+      <c r="D12" s="67">
         <f>D10+D5</f>
         <v>0</v>
       </c>
-      <c r="E12" s="124">
+      <c r="E12" s="67">
         <f>E10+E5</f>
         <v>0</v>
       </c>
-      <c r="F12" s="124">
+      <c r="F12" s="67">
         <f>F10+F5</f>
         <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A13" s="123" t="s">
-        <v>87</v>
-      </c>
-      <c r="B13" s="121">
+      <c r="A13" s="66" t="s">
+        <v>50</v>
+      </c>
+      <c r="B13" s="64">
         <f>IF(B12=0,0,B3/B12)</f>
         <v>0</v>
       </c>
-      <c r="C13" s="121">
+      <c r="C13" s="64">
         <f>IF(C12=0,0,C3/C12)</f>
         <v>0</v>
       </c>
-      <c r="D13" s="121">
+      <c r="D13" s="64">
         <f>IF(D12=0,0,D3/D12)</f>
         <v>0</v>
       </c>
-      <c r="E13" s="121">
+      <c r="E13" s="64">
         <f>IF(E12=0,0,E3/E12)</f>
         <v>0</v>
       </c>
-      <c r="F13" s="121">
+      <c r="F13" s="64">
         <f>IF(F12=0,0,F3/F12)</f>
         <v>0</v>
       </c>
